--- a/generateData.xlsx
+++ b/generateData.xlsx
@@ -169,10 +169,10 @@
     <t>Số lượng người làm việc theo VTVL làm đến 31/12||VTVL chức danh nghề nghiệp chuyên ngành</t>
   </si>
   <si>
-    <t>SL_NLV_VTVL_LAM_DEN_31/12||VTVL_CHUC_DANH_NGHE_NGHIEP_CN</t>
-  </si>
-  <si>
-    <t>VTVL_CHUC_DANH_NGHE_NGHIEP_CN</t>
+    <t>SL_NLV_VTVL_LAM_DEN_31/12||VTVL_CDNN_CN</t>
+  </si>
+  <si>
+    <t>VTVL_CDNN_CN</t>
   </si>
   <si>
     <t>erSfvM3z71t.bu9HHnMHkAH</t>
@@ -181,10 +181,10 @@
     <t>Số lượng người làm việc theo VTVL làm đến 31/12||VTVL lãnh đạo quản lý</t>
   </si>
   <si>
-    <t>SL_NLV_VTVL_LAM_DEN_31/12||VTVL_LANH_DAO_QUAN_LY</t>
-  </si>
-  <si>
-    <t>VTVL_LANH_DAO_QUAN_LY</t>
+    <t>SL_NLV_VTVL_LAM_DEN_31/12||VTVL_LDQL</t>
+  </si>
+  <si>
+    <t>VTVL_LDQL</t>
   </si>
   <si>
     <t>erSfvM3z71t.cfAAXHazdUs</t>
@@ -193,10 +193,10 @@
     <t>Số lượng người làm việc theo VTVL làm đến 31/12||VTVL chức danh nghề nghiệp chuyên môn</t>
   </si>
   <si>
-    <t>SL_NLV_VTVL_LAM_DEN_31/12||VTVL_CHUC_DANH_NGHE_NGHIEP_CHUYEN_MON</t>
-  </si>
-  <si>
-    <t>VTVL_CHUC_DANH_NGHE_NGHIEP_CHUYEN_MON</t>
+    <t>SL_NLV_VTVL_LAM_DEN_31/12||VTVL_CDNN_CM</t>
+  </si>
+  <si>
+    <t>VTVL_CDNN_CM</t>
   </si>
   <si>
     <t>WTZcNni9oUd.ZDVljrSRi0i</t>
@@ -259,10 +259,10 @@
     <t>Số lượng người làm việc được giao trong năm||Lao động làm việc theo 111/2022/NĐ-CP hoặc 68/2000/NĐ-CP..., Số lao động làm việc theo hợp đồng theo Nghị định số 111/2022/NĐ-CP (hoặc theo Nghị định số 68/2000/NĐ-CP, Nghị định số 161/2018/NĐ-CP khi chưa chuyển đổi sang Nghị định 111/2022/NĐ-CP)</t>
   </si>
   <si>
-    <t>SL_NLV_DUOC_GIAO_TRONG_NAM||LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_LAO_DONG_LAM_VIEC_HOP_DONG_NGHI_DINH_111/2022/ND-CP_(HOAC_NGHI_DINH_68/2000/ND-CP,_NGHI_DINH_161/2018/ND-CP_KHI_CHUA_CHUYEN_DOI_SANG_NGHI_DINH_111/2022/ND-CP)</t>
-  </si>
-  <si>
-    <t>LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_LAO_DONG_LAM_VIEC_HOP_DONG_NGHI_DINH_111/2022/ND-CP_(HOAC_NGHI_DINH_68/2000/ND-CP,_NGHI_DINH_161/2018/ND-CP_KHI_CHUA_CHUYEN_DOI_SANG_NGHI_DINH_111/2022/ND-CP)</t>
+    <t>SL_NLV_DUOC_GIAO_TRONG_NAM||LD-111-68_LAO_DONG_LAM_VIEC_HOP_DONG_NGHI_DINH_111/2022/ND-CP_(HOAC_NGHI_DINH_68/2000/ND-CP,_NGHI_DINH_161/2018/ND-CP_KHI_CHUA_CHUYEN_DOI_SANG_NGHI_DINH_111/2022/ND-CP)</t>
+  </si>
+  <si>
+    <t>LD-111-68_LAO_DONG_LAM_VIEC_HOP_DONG_NGHI_DINH_111/2022/ND-CP_(HOAC_NGHI_DINH_68/2000/ND-CP,_NGHI_DINH_161/2018/ND-CP_KHI_CHUA_CHUYEN_DOI_SANG_NGHI_DINH_111/2022/ND-CP)</t>
   </si>
   <si>
     <t>cSU9TzIblBU.hfW605WOTQf</t>
@@ -271,10 +271,10 @@
     <t>Số lượng người làm việc được giao trong năm||Lao động làm việc theo 111/2022/NĐ-CP hoặc 68/2000/NĐ-CP..., Số lượng người làm việc hưởng lương từ nguồn thu của đơn vị</t>
   </si>
   <si>
-    <t>SL_NLV_DUOC_GIAO_TRONG_NAM||LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_SL_NLV_LUONG_NGUON_THU_CUA_DON_VI</t>
-  </si>
-  <si>
-    <t>LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_SL_NLV_LUONG_NGUON_THU_CUA_DON_VI</t>
+    <t>SL_NLV_DUOC_GIAO_TRONG_NAM||LD-111-68_SL_NLV_LUONG_NGUON_THU</t>
+  </si>
+  <si>
+    <t>LD-111-68_SL_NLV_LUONG_NGUON_THU</t>
   </si>
   <si>
     <t>cSU9TzIblBU.B2JzGU5vual</t>
@@ -283,10 +283,10 @@
     <t>Số lượng người làm việc được giao trong năm||Lao động làm việc theo 111/2022/NĐ-CP hoặc 68/2000/NĐ-CP..., Số lượng người làm việc hưởng lương từ NSNN</t>
   </si>
   <si>
-    <t>SL_NLV_DUOC_GIAO_TRONG_NAM||LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_SL_NLV_LUONG_NSNN</t>
-  </si>
-  <si>
-    <t>LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_SL_NLV_LUONG_NSNN</t>
+    <t>SL_NLV_DUOC_GIAO_TRONG_NAM||LD-111-68_SL_NLV_LUONG_NSNN</t>
+  </si>
+  <si>
+    <t>LD-111-68_SL_NLV_LUONG_NSNN</t>
   </si>
   <si>
     <t>cSU9TzIblBU.PCGX4jSvUS9</t>
@@ -343,10 +343,10 @@
     <t>Số lượng người làm việc được giao trong năm||Viên chức, Số lượng người làm việc hưởng lương từ nguồn thu của đơn vị</t>
   </si>
   <si>
-    <t>SL_NLV_DUOC_GIAO_TRONG_NAM||VC_SL_NLV_LUONG_NGUON_THU_CUA_DON_VI</t>
-  </si>
-  <si>
-    <t>VC_SL_NLV_LUONG_NGUON_THU_CUA_DON_VI</t>
+    <t>SL_NLV_DUOC_GIAO_TRONG_NAM||VC_SL_NLV_LUONG_NGUON_THU</t>
+  </si>
+  <si>
+    <t>VC_SL_NLV_LUONG_NGUON_THU</t>
   </si>
   <si>
     <t>cSU9TzIblBU.oa9f2w99Tpq</t>
@@ -379,10 +379,10 @@
     <t>Số lượng người làm việc được giao trong năm||Lao động hợp đồng đối với VTVL là viên chức, Số lượng người làm việc hưởng lương từ nguồn thu của đơn vị</t>
   </si>
   <si>
-    <t>SL_NLV_DUOC_GIAO_TRONG_NAM||LAO_DONG_HOP_DONG_DOI_VOI_VTVL_LA_VC_SL_NLV_LUONG_NGUON_THU_CUA_DON_VI</t>
-  </si>
-  <si>
-    <t>LAO_DONG_HOP_DONG_DOI_VOI_VTVL_LA_VC_SL_NLV_LUONG_NGUON_THU_CUA_DON_VI</t>
+    <t>SL_NLV_DUOC_GIAO_TRONG_NAM||LAO_DONG_HOP_DONG_DOI_VOI_VTVL_LA_VC_SL_NLV_LUONG_NGUON_THU</t>
+  </si>
+  <si>
+    <t>LAO_DONG_HOP_DONG_DOI_VOI_VTVL_LA_VC_SL_NLV_LUONG_NGUON_THU</t>
   </si>
   <si>
     <t>XLbMcSFFgUH.nafPo2ZUop8</t>
@@ -406,10 +406,10 @@
     <t>Số lượng người làm việc đến 31/12||Lao động làm việc theo 111/2022/NĐ-CP hoặc 68/2000/NĐ-CP..., Nam</t>
   </si>
   <si>
-    <t>SL_NLV_DEN_31/12||LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_NAM</t>
-  </si>
-  <si>
-    <t>LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_NAM</t>
+    <t>SL_NLV_DEN_31/12||LD-111-68_NAM</t>
+  </si>
+  <si>
+    <t>LD-111-68_NAM</t>
   </si>
   <si>
     <t>XLbMcSFFgUH.qsxJvkV2XhJ</t>
@@ -430,10 +430,10 @@
     <t>Số lượng người làm việc đến 31/12||Lao động làm việc theo 111/2022/NĐ-CP hoặc 68/2000/NĐ-CP..., Nữ</t>
   </si>
   <si>
-    <t>SL_NLV_DEN_31/12||LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_NU</t>
-  </si>
-  <si>
-    <t>LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_NU</t>
+    <t>SL_NLV_DEN_31/12||LD-111-68_NU</t>
+  </si>
+  <si>
+    <t>LD-111-68_NU</t>
   </si>
   <si>
     <t>XLbMcSFFgUH.XcLfVLNsBH6</t>
@@ -481,10 +481,10 @@
     <t>Số lượng người LV đến 31/12 theo Chuyên ngành Dược||Lao động làm việc theo 111/2022/NĐ-CP hoặc 68/2000/NĐ-CP..., Dược sĩ đại học</t>
   </si>
   <si>
-    <t>SL_NLV_31/12_CN_DUOC||LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_DUOC_SI_DAI_HOC</t>
-  </si>
-  <si>
-    <t>LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_DUOC_SI_DAI_HOC</t>
+    <t>SL_NLV_31/12_CN_DUOC||LD-111-68_DUOC_SI_DAI_HOC</t>
+  </si>
+  <si>
+    <t>LD-111-68_DUOC_SI_DAI_HOC</t>
   </si>
   <si>
     <t>WAtrshHLRlr.Qd0ICs7aGae</t>
@@ -493,10 +493,10 @@
     <t>Số lượng người LV đến 31/12 theo Chuyên ngành Dược||Lao động làm việc theo 111/2022/NĐ-CP hoặc 68/2000/NĐ-CP..., Trình độ dược khác</t>
   </si>
   <si>
-    <t>SL_NLV_31/12_CN_DUOC||LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_TRINH_DO_DUOC_KHAC</t>
-  </si>
-  <si>
-    <t>LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_TRINH_DO_DUOC_KHAC</t>
+    <t>SL_NLV_31/12_CN_DUOC||LD-111-68_TRINH_DO_DUOC_KHAC</t>
+  </si>
+  <si>
+    <t>LD-111-68_TRINH_DO_DUOC_KHAC</t>
   </si>
   <si>
     <t>WAtrshHLRlr.dL9XzFllTv8</t>
@@ -553,10 +553,10 @@
     <t>Số lượng người LV đến 31/12 theo Chuyên ngành Dược||Lao động làm việc theo 111/2022/NĐ-CP hoặc 68/2000/NĐ-CP..., Dược sĩ (cao đẳng + trung cấp)</t>
   </si>
   <si>
-    <t>SL_NLV_31/12_CN_DUOC||LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_DUOC_SI_(CAO_DANG_+_TRUNG_CAP)</t>
-  </si>
-  <si>
-    <t>LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_DUOC_SI_(CAO_DANG_+_TRUNG_CAP)</t>
+    <t>SL_NLV_31/12_CN_DUOC||LD-111-68_DUOC_SI_(CAO_DANG_+_TRUNG_CAP)</t>
+  </si>
+  <si>
+    <t>LD-111-68_DUOC_SI_(CAO_DANG_+_TRUNG_CAP)</t>
   </si>
   <si>
     <t>WAtrshHLRlr.n7lYSe2hDsN</t>
@@ -601,10 +601,10 @@
     <t>Số lượng người LV đến 31/12 theo Chuyên ngành Dược||Lao động làm việc theo 111/2022/NĐ-CP hoặc 68/2000/NĐ-CP..., Dược sĩ sau đại học</t>
   </si>
   <si>
-    <t>SL_NLV_31/12_CN_DUOC||LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_DUOC_SI_SAU_DAI_HOC</t>
-  </si>
-  <si>
-    <t>LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_DUOC_SI_SAU_DAI_HOC</t>
+    <t>SL_NLV_31/12_CN_DUOC||LD-111-68_DUOC_SI_SAU_DAI_HOC</t>
+  </si>
+  <si>
+    <t>LD-111-68_DUOC_SI_SAU_DAI_HOC</t>
   </si>
   <si>
     <t>JcsPy36XV7I.h0QTV65BNDP</t>
@@ -628,10 +628,10 @@
     <t>Số lượng người LV đến 31/12 theo Chuyên ngành Y||Lao động làm việc theo 111/2022/NĐ-CP hoặc 68/2000/NĐ-CP..., Trình độ y khác</t>
   </si>
   <si>
-    <t>SL_NLV_31/12_CN_Y||LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_TRINH_DO_Y_KHAC</t>
-  </si>
-  <si>
-    <t>LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_TRINH_DO_Y_KHAC</t>
+    <t>SL_NLV_31/12_CN_Y||LD-111-68_TRINH_DO_Y_KHAC</t>
+  </si>
+  <si>
+    <t>LD-111-68_TRINH_DO_Y_KHAC</t>
   </si>
   <si>
     <t>JcsPy36XV7I.WP7KM1JTlwi</t>
@@ -640,10 +640,10 @@
     <t>Số lượng người LV đến 31/12 theo Chuyên ngành Y||Lao động làm việc theo 111/2022/NĐ-CP hoặc 68/2000/NĐ-CP..., Y sĩ</t>
   </si>
   <si>
-    <t>SL_NLV_31/12_CN_Y||LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_Y_SI</t>
-  </si>
-  <si>
-    <t>LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_Y_SI</t>
+    <t>SL_NLV_31/12_CN_Y||LD-111-68_Y_SI</t>
+  </si>
+  <si>
+    <t>LD-111-68_Y_SI</t>
   </si>
   <si>
     <t>JcsPy36XV7I.YVlNSgmnngQ</t>
@@ -712,10 +712,10 @@
     <t>Số lượng người LV đến 31/12 theo Chuyên ngành Y||Lao động làm việc theo 111/2022/NĐ-CP hoặc 68/2000/NĐ-CP..., Điều dưỡng</t>
   </si>
   <si>
-    <t>SL_NLV_31/12_CN_Y||LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_DIEU_DUONG</t>
-  </si>
-  <si>
-    <t>LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_DIEU_DUONG</t>
+    <t>SL_NLV_31/12_CN_Y||LD-111-68_DIEU_DUONG</t>
+  </si>
+  <si>
+    <t>LD-111-68_DIEU_DUONG</t>
   </si>
   <si>
     <t>JcsPy36XV7I.ahdNylBwgmx</t>
@@ -748,10 +748,10 @@
     <t>Số lượng người LV đến 31/12 theo Chuyên ngành Y||Lao động làm việc theo 111/2022/NĐ-CP hoặc 68/2000/NĐ-CP..., Kỹ thuật viên y</t>
   </si>
   <si>
-    <t>SL_NLV_31/12_CN_Y||LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_KY_THUAT_VIEN_Y</t>
-  </si>
-  <si>
-    <t>LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_KY_THUAT_VIEN_Y</t>
+    <t>SL_NLV_31/12_CN_Y||LD-111-68_KY_THUAT_VIEN_Y</t>
+  </si>
+  <si>
+    <t>LD-111-68_KY_THUAT_VIEN_Y</t>
   </si>
   <si>
     <t>JcsPy36XV7I.b8Dn7G0mgyi</t>
@@ -772,10 +772,10 @@
     <t>Số lượng người LV đến 31/12 theo Chuyên ngành Y||Lao động làm việc theo 111/2022/NĐ-CP hoặc 68/2000/NĐ-CP..., Hộ sinh</t>
   </si>
   <si>
-    <t>SL_NLV_31/12_CN_Y||LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_HO_SINH</t>
-  </si>
-  <si>
-    <t>LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_HO_SINH</t>
+    <t>SL_NLV_31/12_CN_Y||LD-111-68_HO_SINH</t>
+  </si>
+  <si>
+    <t>LD-111-68_HO_SINH</t>
   </si>
   <si>
     <t>JcsPy36XV7I.pQxWtc3VAr5</t>
@@ -796,10 +796,10 @@
     <t>Số lượng người LV đến 31/12 theo Chuyên ngành Y||Lao động làm việc theo 111/2022/NĐ-CP hoặc 68/2000/NĐ-CP..., Bác sĩ</t>
   </si>
   <si>
-    <t>SL_NLV_31/12_CN_Y||LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_BS</t>
-  </si>
-  <si>
-    <t>LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_BS</t>
+    <t>SL_NLV_31/12_CN_Y||LD-111-68_BS</t>
+  </si>
+  <si>
+    <t>LD-111-68_BS</t>
   </si>
   <si>
     <t>JcsPy36XV7I.FytDBODfGIu</t>
@@ -808,10 +808,10 @@
     <t>Số lượng người LV đến 31/12 theo Chuyên ngành Y||Lao động làm việc theo 111/2022/NĐ-CP hoặc 68/2000/NĐ-CP..., Y tế công cộng</t>
   </si>
   <si>
-    <t>SL_NLV_31/12_CN_Y||LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_YTCC</t>
-  </si>
-  <si>
-    <t>LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_YTCC</t>
+    <t>SL_NLV_31/12_CN_Y||LD-111-68_YTCC</t>
+  </si>
+  <si>
+    <t>LD-111-68_YTCC</t>
   </si>
   <si>
     <t>JcsPy36XV7I.ZLrit8VttTI</t>
@@ -856,10 +856,10 @@
     <t>Số lượng người LV đến 31/12 theo Chuyên ngành Y||Lao động làm việc theo 111/2022/NĐ-CP hoặc 68/2000/NĐ-CP..., Bác sĩ sau đại học</t>
   </si>
   <si>
-    <t>SL_NLV_31/12_CN_Y||LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_BS_SAU_DAI_HOC</t>
-  </si>
-  <si>
-    <t>LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_BS_SAU_DAI_HOC</t>
+    <t>SL_NLV_31/12_CN_Y||LD-111-68_BS_SAU_DAI_HOC</t>
+  </si>
+  <si>
+    <t>LD-111-68_BS_SAU_DAI_HOC</t>
   </si>
   <si>
     <t>JcsPy36XV7I.PL10rfgsO5h</t>
@@ -931,10 +931,10 @@
     <t>Số lượng người làm việc tại 31/12 theo Dân tộc||Lao động làm việc theo 111/2022/NĐ-CP hoặc 68/2000/NĐ-CP..., Dân tộc Khác</t>
   </si>
   <si>
-    <t>SL_NLV_TAI_31/12_DAN_TOC||LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_DAN_TOC_KHAC</t>
-  </si>
-  <si>
-    <t>LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_DAN_TOC_KHAC</t>
+    <t>SL_NLV_TAI_31/12_DAN_TOC||LD-111-68_DAN_TOC_KHAC</t>
+  </si>
+  <si>
+    <t>LD-111-68_DAN_TOC_KHAC</t>
   </si>
   <si>
     <t>kqog0G9k77N.u8qZ4cyPK7k</t>
@@ -955,10 +955,10 @@
     <t>Số lượng người làm việc tại 31/12 theo Dân tộc||Lao động làm việc theo 111/2022/NĐ-CP hoặc 68/2000/NĐ-CP..., Dân tộc Kinh</t>
   </si>
   <si>
-    <t>SL_NLV_TAI_31/12_DAN_TOC||LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_DAN_TOC_KINH</t>
-  </si>
-  <si>
-    <t>LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_DAN_TOC_KINH</t>
+    <t>SL_NLV_TAI_31/12_DAN_TOC||LD-111-68_DAN_TOC_KINH</t>
+  </si>
+  <si>
+    <t>LD-111-68_DAN_TOC_KINH</t>
   </si>
   <si>
     <t>kqog0G9k77N.NBMkC3gk5Y9</t>
@@ -1189,10 +1189,10 @@
     <t>Số lượng người làm việc đến 31/12 theo Học hàm||Lao động làm việc theo 111/2022/NĐ-CP hoặc 68/2000/NĐ-CP..., Phó giáo sư</t>
   </si>
   <si>
-    <t>SL_NLV_DEN_31/12_HOC_HAM||LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_PHO_GIAO_SU</t>
-  </si>
-  <si>
-    <t>LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_PHO_GIAO_SU</t>
+    <t>SL_NLV_DEN_31/12_HOC_HAM||LD-111-68_PHO_GIAO_SU</t>
+  </si>
+  <si>
+    <t>LD-111-68_PHO_GIAO_SU</t>
   </si>
   <si>
     <t>osYuMXZK0QQ.NSW0XjE3BtJ</t>
@@ -1225,10 +1225,10 @@
     <t>Số lượng người làm việc đến 31/12 theo Học hàm||Lao động làm việc theo 111/2022/NĐ-CP hoặc 68/2000/NĐ-CP..., Giáo sư</t>
   </si>
   <si>
-    <t>SL_NLV_DEN_31/12_HOC_HAM||LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_GIAO_SU</t>
-  </si>
-  <si>
-    <t>LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_GIAO_SU</t>
+    <t>SL_NLV_DEN_31/12_HOC_HAM||LD-111-68_GIAO_SU</t>
+  </si>
+  <si>
+    <t>LD-111-68_GIAO_SU</t>
   </si>
   <si>
     <t>pc149jlMdE6.nreOqX66WFU</t>
@@ -1237,13 +1237,13 @@
     <t>Số lượng người làm việc đến 31/12 theo Nhóm tuổi||Lao động làm việc theo 111/2022/NĐ-CP hoặc 68/2000/NĐ-CP..., Trên 60 tuổi</t>
   </si>
   <si>
-    <t>SL_NLV_DEN_31/12_NHOM_TUOI||LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_TREN_60_TUOI</t>
+    <t>SL_NLV_DEN_31/12_NHOM_TUOI||LD-111-68_TREN_60_TUOI</t>
   </si>
   <si>
     <t>SL_NLV_DEN_31/12_NHOM_TUOI</t>
   </si>
   <si>
-    <t>LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_TREN_60_TUOI</t>
+    <t>LD-111-68_TREN_60_TUOI</t>
   </si>
   <si>
     <t>pc149jlMdE6.v2OHQvFAAJt</t>
@@ -1264,10 +1264,10 @@
     <t>Số lượng người làm việc đến 31/12 theo Nhóm tuổi||Lao động làm việc theo 111/2022/NĐ-CP hoặc 68/2000/NĐ-CP..., Từ 56 đến 60</t>
   </si>
   <si>
-    <t>SL_NLV_DEN_31/12_NHOM_TUOI||LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_TU_56_DEN_60</t>
-  </si>
-  <si>
-    <t>LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_TU_56_DEN_60</t>
+    <t>SL_NLV_DEN_31/12_NHOM_TUOI||LD-111-68_TU_56_DEN_60</t>
+  </si>
+  <si>
+    <t>LD-111-68_TU_56_DEN_60</t>
   </si>
   <si>
     <t>pc149jlMdE6.oaRZoeU2tTt</t>
@@ -1288,10 +1288,10 @@
     <t>Số lượng người làm việc đến 31/12 theo Nhóm tuổi||Lao động làm việc theo 111/2022/NĐ-CP hoặc 68/2000/NĐ-CP..., Từ 41 đến 50</t>
   </si>
   <si>
-    <t>SL_NLV_DEN_31/12_NHOM_TUOI||LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_TU_41_DEN_50</t>
-  </si>
-  <si>
-    <t>LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_TU_41_DEN_50</t>
+    <t>SL_NLV_DEN_31/12_NHOM_TUOI||LD-111-68_TU_41_DEN_50</t>
+  </si>
+  <si>
+    <t>LD-111-68_TU_41_DEN_50</t>
   </si>
   <si>
     <t>pc149jlMdE6.VF8C2LSDuvs</t>
@@ -1384,10 +1384,10 @@
     <t>Số lượng người làm việc đến 31/12 theo Nhóm tuổi||Lao động làm việc theo 111/2022/NĐ-CP hoặc 68/2000/NĐ-CP..., Từ 51 đến 55</t>
   </si>
   <si>
-    <t>SL_NLV_DEN_31/12_NHOM_TUOI||LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_TU_51_DEN_55</t>
-  </si>
-  <si>
-    <t>LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_TU_51_DEN_55</t>
+    <t>SL_NLV_DEN_31/12_NHOM_TUOI||LD-111-68_TU_51_DEN_55</t>
+  </si>
+  <si>
+    <t>LD-111-68_TU_51_DEN_55</t>
   </si>
   <si>
     <t>pc149jlMdE6.sdPlPvIMoFj</t>
@@ -1432,10 +1432,10 @@
     <t>Số lượng người làm việc đến 31/12 theo Nhóm tuổi||Lao động làm việc theo 111/2022/NĐ-CP hoặc 68/2000/NĐ-CP..., Từ 31 đến 40</t>
   </si>
   <si>
-    <t>SL_NLV_DEN_31/12_NHOM_TUOI||LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_TU_31_DEN_40</t>
-  </si>
-  <si>
-    <t>LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_TU_31_DEN_40</t>
+    <t>SL_NLV_DEN_31/12_NHOM_TUOI||LD-111-68_TU_31_DEN_40</t>
+  </si>
+  <si>
+    <t>LD-111-68_TU_31_DEN_40</t>
   </si>
   <si>
     <t>pc149jlMdE6.TnspyiEm4qe</t>
@@ -1444,10 +1444,10 @@
     <t>Số lượng người làm việc đến 31/12 theo Nhóm tuổi||Lao động làm việc theo 111/2022/NĐ-CP hoặc 68/2000/NĐ-CP..., Từ 30 trở xuống</t>
   </si>
   <si>
-    <t>SL_NLV_DEN_31/12_NHOM_TUOI||LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_TU_30_TRO_XUONG</t>
-  </si>
-  <si>
-    <t>LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_TU_30_TRO_XUONG</t>
+    <t>SL_NLV_DEN_31/12_NHOM_TUOI||LD-111-68_TU_30_TRO_XUONG</t>
+  </si>
+  <si>
+    <t>LD-111-68_TU_30_TRO_XUONG</t>
   </si>
   <si>
     <t>gLyL9ykbdQq.TukKmqseTPx</t>
@@ -1483,10 +1483,10 @@
     <t>Số lượng người LV đến 31/12 theo Trình độ học vấn||Lao động làm việc theo 111/2022/NĐ-CP hoặc 68/2000/NĐ-CP..., Trung cấp, cao đẳng</t>
   </si>
   <si>
-    <t>SL_NLV_31/12_TDHV||LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_TRUNG_CAP,_CAO_DANG</t>
-  </si>
-  <si>
-    <t>LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_TRUNG_CAP,_CAO_DANG</t>
+    <t>SL_NLV_31/12_TDHV||LD-111-68_TRUNG_CAP,_CAO_DANG</t>
+  </si>
+  <si>
+    <t>LD-111-68_TRUNG_CAP,_CAO_DANG</t>
   </si>
   <si>
     <t>gLyL9ykbdQq.tCxsublUbJj</t>
@@ -1567,10 +1567,10 @@
     <t>Số lượng người LV đến 31/12 theo Trình độ học vấn||Lao động làm việc theo 111/2022/NĐ-CP hoặc 68/2000/NĐ-CP..., Tiểu học</t>
   </si>
   <si>
-    <t>SL_NLV_31/12_TDHV||LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_TIEU_HOC</t>
-  </si>
-  <si>
-    <t>LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_TIEU_HOC</t>
+    <t>SL_NLV_31/12_TDHV||LD-111-68_TIEU_HOC</t>
+  </si>
+  <si>
+    <t>LD-111-68_TIEU_HOC</t>
   </si>
   <si>
     <t>gLyL9ykbdQq.Xr397aOIdSA</t>
@@ -1615,10 +1615,10 @@
     <t>Số lượng người LV đến 31/12 theo Trình độ học vấn||Lao động làm việc theo 111/2022/NĐ-CP hoặc 68/2000/NĐ-CP..., Đại học</t>
   </si>
   <si>
-    <t>SL_NLV_31/12_TDHV||LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_DAI_HOC</t>
-  </si>
-  <si>
-    <t>LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_DAI_HOC</t>
+    <t>SL_NLV_31/12_TDHV||LD-111-68_DAI_HOC</t>
+  </si>
+  <si>
+    <t>LD-111-68_DAI_HOC</t>
   </si>
   <si>
     <t>gLyL9ykbdQq.xEV8vwVxozE</t>
@@ -1627,10 +1627,10 @@
     <t>Số lượng người LV đến 31/12 theo Trình độ học vấn||Lao động làm việc theo 111/2022/NĐ-CP hoặc 68/2000/NĐ-CP..., Trung học cơ sở</t>
   </si>
   <si>
-    <t>SL_NLV_31/12_TDHV||LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_TRUNG_HOC_CO</t>
-  </si>
-  <si>
-    <t>LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_TRUNG_HOC_CO</t>
+    <t>SL_NLV_31/12_TDHV||LD-111-68_TRUNG_HOC_CO</t>
+  </si>
+  <si>
+    <t>LD-111-68_TRUNG_HOC_CO</t>
   </si>
   <si>
     <t>gLyL9ykbdQq.zFV2vOa0hvZ</t>
@@ -1639,10 +1639,10 @@
     <t>Số lượng người LV đến 31/12 theo Trình độ học vấn||Lao động làm việc theo 111/2022/NĐ-CP hoặc 68/2000/NĐ-CP..., Sơ cấp</t>
   </si>
   <si>
-    <t>SL_NLV_31/12_TDHV||LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_CAP</t>
-  </si>
-  <si>
-    <t>LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_CAP</t>
+    <t>SL_NLV_31/12_TDHV||LD-111-68_CAP</t>
+  </si>
+  <si>
+    <t>LD-111-68_CAP</t>
   </si>
   <si>
     <t>gLyL9ykbdQq.FP1sFzSWilF</t>
@@ -1699,10 +1699,10 @@
     <t>Số lượng người LV đến 31/12 theo Trình độ học vấn||Lao động làm việc theo 111/2022/NĐ-CP hoặc 68/2000/NĐ-CP..., Trung học phổ thông</t>
   </si>
   <si>
-    <t>SL_NLV_31/12_TDHV||LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_TRUNG_HOC_PHO_THONG</t>
-  </si>
-  <si>
-    <t>LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_TRUNG_HOC_PHO_THONG</t>
+    <t>SL_NLV_31/12_TDHV||LD-111-68_TRUNG_HOC_PHO_THONG</t>
+  </si>
+  <si>
+    <t>LD-111-68_TRUNG_HOC_PHO_THONG</t>
   </si>
   <si>
     <t>gLyL9ykbdQq.gy5MvKBxpxN</t>
@@ -1759,10 +1759,10 @@
     <t>Số lượng người LV đến 31/12 theo Trình độ học vấn||Lao động làm việc theo 111/2022/NĐ-CP hoặc 68/2000/NĐ-CP..., Trung cấp</t>
   </si>
   <si>
-    <t>SL_NLV_31/12_TDHV||LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_TRUNG_CAP</t>
-  </si>
-  <si>
-    <t>LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_TRUNG_CAP</t>
+    <t>SL_NLV_31/12_TDHV||LD-111-68_TRUNG_CAP</t>
+  </si>
+  <si>
+    <t>LD-111-68_TRUNG_CAP</t>
   </si>
   <si>
     <t>gLyL9ykbdQq.yKH4c914Jxs</t>
@@ -1771,10 +1771,10 @@
     <t>Số lượng người LV đến 31/12 theo Trình độ học vấn||Lao động làm việc theo 111/2022/NĐ-CP hoặc 68/2000/NĐ-CP..., Thạc sĩ</t>
   </si>
   <si>
-    <t>SL_NLV_31/12_TDHV||LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_THAC_SI</t>
-  </si>
-  <si>
-    <t>LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_THAC_SI</t>
+    <t>SL_NLV_31/12_TDHV||LD-111-68_THAC_SI</t>
+  </si>
+  <si>
+    <t>LD-111-68_THAC_SI</t>
   </si>
   <si>
     <t>gLyL9ykbdQq.TGLjdVlhzHO</t>
@@ -1819,10 +1819,10 @@
     <t>Số lượng người LV đến 31/12 theo Trình độ học vấn||Lao động làm việc theo 111/2022/NĐ-CP hoặc 68/2000/NĐ-CP..., Tiến sĩ</t>
   </si>
   <si>
-    <t>SL_NLV_31/12_TDHV||LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_TIEN_SI</t>
-  </si>
-  <si>
-    <t>LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_TIEN_SI</t>
+    <t>SL_NLV_31/12_TDHV||LD-111-68_TIEN_SI</t>
+  </si>
+  <si>
+    <t>LD-111-68_TIEN_SI</t>
   </si>
   <si>
     <t>gLyL9ykbdQq.PTn8KKlr6vM</t>
@@ -1831,10 +1831,10 @@
     <t>Số lượng người LV đến 31/12 theo Trình độ học vấn||Lao động làm việc theo 111/2022/NĐ-CP hoặc 68/2000/NĐ-CP..., Cao đẳng</t>
   </si>
   <si>
-    <t>SL_NLV_31/12_TDHV||LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_CAO_DANG</t>
-  </si>
-  <si>
-    <t>LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_CAO_DANG</t>
+    <t>SL_NLV_31/12_TDHV||LD-111-68_CAO_DANG</t>
+  </si>
+  <si>
+    <t>LD-111-68_CAO_DANG</t>
   </si>
   <si>
     <t>gLyL9ykbdQq.rO26uRzoPD7</t>
@@ -1843,10 +1843,10 @@
     <t>Số lượng người LV đến 31/12 theo Trình độ học vấn||Lao động làm việc theo 111/2022/NĐ-CP hoặc 68/2000/NĐ-CP..., Đại học trở lên</t>
   </si>
   <si>
-    <t>SL_NLV_31/12_TDHV||LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_DAI_HOC_TRO_LEN</t>
-  </si>
-  <si>
-    <t>LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_DAI_HOC_TRO_LEN</t>
+    <t>SL_NLV_31/12_TDHV||LD-111-68_DAI_HOC_TRO_LEN</t>
+  </si>
+  <si>
+    <t>LD-111-68_DAI_HOC_TRO_LEN</t>
   </si>
   <si>
     <t>hZciCpWb0ry.cyi5aAJbXr8</t>
@@ -1876,10 +1876,10 @@
     <t>Số lượng người LV đến 31/12 theo lý luận chính trị||Lao động làm việc theo 111/2022/NĐ-CP hoặc 68/2000/NĐ-CP..., Cao cấp</t>
   </si>
   <si>
-    <t>SL_NLV_31/12_LLCT||LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_CAO_CAP</t>
-  </si>
-  <si>
-    <t>LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_CAO_CAP</t>
+    <t>SL_NLV_31/12_LLCT||LD-111-68_CAO_CAP</t>
+  </si>
+  <si>
+    <t>LD-111-68_CAO_CAP</t>
   </si>
   <si>
     <t>hZciCpWb0ry.t0xe1hfqdMJ</t>
@@ -1948,7 +1948,7 @@
     <t>Số lượng người LV đến 31/12 theo lý luận chính trị||Lao động làm việc theo 111/2022/NĐ-CP hoặc 68/2000/NĐ-CP..., Đại học</t>
   </si>
   <si>
-    <t>SL_NLV_31/12_LLCT||LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_DAI_HOC</t>
+    <t>SL_NLV_31/12_LLCT||LD-111-68_DAI_HOC</t>
   </si>
   <si>
     <t>hZciCpWb0ry.BLEHSwiJowv</t>
@@ -1957,7 +1957,7 @@
     <t>Số lượng người LV đến 31/12 theo lý luận chính trị||Lao động làm việc theo 111/2022/NĐ-CP hoặc 68/2000/NĐ-CP..., Sơ cấp</t>
   </si>
   <si>
-    <t>SL_NLV_31/12_LLCT||LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_CAP</t>
+    <t>SL_NLV_31/12_LLCT||LD-111-68_CAP</t>
   </si>
   <si>
     <t>hZciCpWb0ry.QJFw2Petwbm</t>
@@ -1966,7 +1966,7 @@
     <t>Số lượng người LV đến 31/12 theo lý luận chính trị||Lao động làm việc theo 111/2022/NĐ-CP hoặc 68/2000/NĐ-CP..., Trung cấp</t>
   </si>
   <si>
-    <t>SL_NLV_31/12_LLCT||LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_TRUNG_CAP</t>
+    <t>SL_NLV_31/12_LLCT||LD-111-68_TRUNG_CAP</t>
   </si>
   <si>
     <t>DWM6jVP4kY5.jAxFzDDJlRV</t>
@@ -1975,13 +1975,13 @@
     <t>Số lượng người làm việc đến 31/12 theo Ngoại ngữ||Lao động làm việc theo 111/2022/NĐ-CP hoặc 68/2000/NĐ-CP..., Chứng chỉ tiếng Anh theo KNLNNVN (chi tiết 6 bậc theo TT01/2014/TT-BGDĐT)</t>
   </si>
   <si>
-    <t>SL_NLV_DEN_31/12_NGOAI_NGU||LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_CHUNG_CHI_TIENG_ANH_KNLNNVN_(CHI_TIET_6_BAC_TT01/2014/TT-BGDDT)</t>
+    <t>SL_NLV_DEN_31/12_NGOAI_NGU||LD-111-68_CHUNG_CHI_TIENG_ANH_KNLNNVN_(CHI_TIET_6_BAC_TT01/2014/TT-BGDDT)</t>
   </si>
   <si>
     <t>SL_NLV_DEN_31/12_NGOAI_NGU</t>
   </si>
   <si>
-    <t>LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_CHUNG_CHI_TIENG_ANH_KNLNNVN_(CHI_TIET_6_BAC_TT01/2014/TT-BGDDT)</t>
+    <t>LD-111-68_CHUNG_CHI_TIENG_ANH_KNLNNVN_(CHI_TIET_6_BAC_TT01/2014/TT-BGDDT)</t>
   </si>
   <si>
     <t>DWM6jVP4kY5.A8gn8hqegg6</t>
@@ -2026,10 +2026,10 @@
     <t>Số lượng người làm việc đến 31/12 theo Ngoại ngữ||Lao động làm việc theo 111/2022/NĐ-CP hoặc 68/2000/NĐ-CP..., Tiếng dân tộc sử dụng giao tiếp được</t>
   </si>
   <si>
-    <t>SL_NLV_DEN_31/12_NGOAI_NGU||LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_TIENG_DAN_TOC_SU_DUNG_GIAO_TIEP_DUOC</t>
-  </si>
-  <si>
-    <t>LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_TIENG_DAN_TOC_SU_DUNG_GIAO_TIEP_DUOC</t>
+    <t>SL_NLV_DEN_31/12_NGOAI_NGU||LD-111-68_TIENG_DAN_TOC_SU_DUNG_GIAO_TIEP_DUOC</t>
+  </si>
+  <si>
+    <t>LD-111-68_TIENG_DAN_TOC_SU_DUNG_GIAO_TIEP_DUOC</t>
   </si>
   <si>
     <t>DWM6jVP4kY5.Z0qNsWdHaCE</t>
@@ -2146,10 +2146,10 @@
     <t>Số lượng người làm việc đến 31/12 theo Ngoại ngữ||Lao động làm việc theo 111/2022/NĐ-CP hoặc 68/2000/NĐ-CP..., Ngoại ngữ khác trình độ đại học trở lên</t>
   </si>
   <si>
-    <t>SL_NLV_DEN_31/12_NGOAI_NGU||LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_NGOAI_NGU_KHAC_TRINH_DO_DAI_HOC_TRO_LEN</t>
-  </si>
-  <si>
-    <t>LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_NGOAI_NGU_KHAC_TRINH_DO_DAI_HOC_TRO_LEN</t>
+    <t>SL_NLV_DEN_31/12_NGOAI_NGU||LD-111-68_NGOAI_NGU_KHAC_TRINH_DO_DAI_HOC_TRO_LEN</t>
+  </si>
+  <si>
+    <t>LD-111-68_NGOAI_NGU_KHAC_TRINH_DO_DAI_HOC_TRO_LEN</t>
   </si>
   <si>
     <t>DWM6jVP4kY5.O85GKuOYd7q</t>
@@ -2158,10 +2158,10 @@
     <t>Số lượng người làm việc đến 31/12 theo Ngoại ngữ||Lao động làm việc theo 111/2022/NĐ-CP hoặc 68/2000/NĐ-CP..., Có chứng chỉ tiếng dân tộc</t>
   </si>
   <si>
-    <t>SL_NLV_DEN_31/12_NGOAI_NGU||LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_CO_CHUNG_CHI_TIENG_DAN_TOC</t>
-  </si>
-  <si>
-    <t>LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_CO_CHUNG_CHI_TIENG_DAN_TOC</t>
+    <t>SL_NLV_DEN_31/12_NGOAI_NGU||LD-111-68_CO_CHUNG_CHI_TIENG_DAN_TOC</t>
+  </si>
+  <si>
+    <t>LD-111-68_CO_CHUNG_CHI_TIENG_DAN_TOC</t>
   </si>
   <si>
     <t>DWM6jVP4kY5.AbjkPrgyY4l</t>
@@ -2170,10 +2170,10 @@
     <t>Số lượng người làm việc đến 31/12 theo Ngoại ngữ||Lao động làm việc theo 111/2022/NĐ-CP hoặc 68/2000/NĐ-CP..., Chứng chỉ ngoại ngữ khác</t>
   </si>
   <si>
-    <t>SL_NLV_DEN_31/12_NGOAI_NGU||LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_CHUNG_CHI_NGOAI_NGU_KHAC</t>
-  </si>
-  <si>
-    <t>LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_CHUNG_CHI_NGOAI_NGU_KHAC</t>
+    <t>SL_NLV_DEN_31/12_NGOAI_NGU||LD-111-68_CHUNG_CHI_NGOAI_NGU_KHAC</t>
+  </si>
+  <si>
+    <t>LD-111-68_CHUNG_CHI_NGOAI_NGU_KHAC</t>
   </si>
   <si>
     <t>DWM6jVP4kY5.ikcwlSGbKBs</t>
@@ -2194,10 +2194,10 @@
     <t>Số lượng người làm việc đến 31/12 theo Ngoại ngữ||Lao động làm việc theo 111/2022/NĐ-CP hoặc 68/2000/NĐ-CP..., Tiếng Anh trình độ đại học trở lên</t>
   </si>
   <si>
-    <t>SL_NLV_DEN_31/12_NGOAI_NGU||LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_TIENG_ANH_TRINH_DO_DAI_HOC_TRO_LEN</t>
-  </si>
-  <si>
-    <t>LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_TIENG_ANH_TRINH_DO_DAI_HOC_TRO_LEN</t>
+    <t>SL_NLV_DEN_31/12_NGOAI_NGU||LD-111-68_TIENG_ANH_TRINH_DO_DAI_HOC_TRO_LEN</t>
+  </si>
+  <si>
+    <t>LD-111-68_TIENG_ANH_TRINH_DO_DAI_HOC_TRO_LEN</t>
   </si>
   <si>
     <t>DWM6jVP4kY5.KxAgP5u0G6U</t>
@@ -2206,10 +2206,10 @@
     <t>Số lượng người làm việc đến 31/12 theo Ngoại ngữ||Lao động làm việc theo 111/2022/NĐ-CP hoặc 68/2000/NĐ-CP..., Chứng chỉ tiếng Anh khác</t>
   </si>
   <si>
-    <t>SL_NLV_DEN_31/12_NGOAI_NGU||LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_CHUNG_CHI_TIENG_ANH_KHAC</t>
-  </si>
-  <si>
-    <t>LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_CHUNG_CHI_TIENG_ANH_KHAC</t>
+    <t>SL_NLV_DEN_31/12_NGOAI_NGU||LD-111-68_CHUNG_CHI_TIENG_ANH_KHAC</t>
+  </si>
+  <si>
+    <t>LD-111-68_CHUNG_CHI_TIENG_ANH_KHAC</t>
   </si>
   <si>
     <t>DWM6jVP4kY5.CbeHk0d1jvy</t>
@@ -2245,10 +2245,10 @@
     <t>Số lượng người làm việc đến 31/12 theo tin học||Lao động làm việc theo 111/2022/NĐ-CP hoặc 68/2000/NĐ-CP..., Chứng chỉ tin học</t>
   </si>
   <si>
-    <t>SL_NLV_DEN_31/12_TIN_HOC||LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_CHUNG_CHI_TIN_HOC</t>
-  </si>
-  <si>
-    <t>LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_CHUNG_CHI_TIN_HOC</t>
+    <t>SL_NLV_DEN_31/12_TIN_HOC||LD-111-68_CHUNG_CHI_TIN_HOC</t>
+  </si>
+  <si>
+    <t>LD-111-68_CHUNG_CHI_TIN_HOC</t>
   </si>
   <si>
     <t>y0GwHBp0CtE.BCfgE9IW92j</t>
@@ -2269,10 +2269,10 @@
     <t>Số lượng người làm việc đến 31/12 theo tin học||Lao động làm việc theo 111/2022/NĐ-CP hoặc 68/2000/NĐ-CP..., Tin học trình độ Trung cấp, cao đẳng</t>
   </si>
   <si>
-    <t>SL_NLV_DEN_31/12_TIN_HOC||LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_TIN_HOC_TRINH_DO_TRUNG_CAP,_CAO_DANG</t>
-  </si>
-  <si>
-    <t>LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_TIN_HOC_TRINH_DO_TRUNG_CAP,_CAO_DANG</t>
+    <t>SL_NLV_DEN_31/12_TIN_HOC||LD-111-68_TIN_HOC_TRINH_DO_TRUNG_CAP,_CAO_DANG</t>
+  </si>
+  <si>
+    <t>LD-111-68_TIN_HOC_TRINH_DO_TRUNG_CAP,_CAO_DANG</t>
   </si>
   <si>
     <t>y0GwHBp0CtE.rnDLGwvW8Zv</t>
@@ -2293,10 +2293,10 @@
     <t>Số lượng người làm việc đến 31/12 theo tin học||Lao động làm việc theo 111/2022/NĐ-CP hoặc 68/2000/NĐ-CP..., Tin học trình độ Đại học trở lên</t>
   </si>
   <si>
-    <t>SL_NLV_DEN_31/12_TIN_HOC||LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_TIN_HOC_TRINH_DO_DAI_HOC_TRO_LEN</t>
-  </si>
-  <si>
-    <t>LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_TIN_HOC_TRINH_DO_DAI_HOC_TRO_LEN</t>
+    <t>SL_NLV_DEN_31/12_TIN_HOC||LD-111-68_TIN_HOC_TRINH_DO_DAI_HOC_TRO_LEN</t>
+  </si>
+  <si>
+    <t>LD-111-68_TIN_HOC_TRINH_DO_DAI_HOC_TRO_LEN</t>
   </si>
   <si>
     <t>y0GwHBp0CtE.lyFdDuUPiz8</t>
@@ -2368,10 +2368,10 @@
     <t>Số lượng người làm việc đến 31/12 theo Tôn giáo||Lao động làm việc theo 111/2022/NĐ-CP hoặc 68/2000/NĐ-CP..., Không có tôn giáo</t>
   </si>
   <si>
-    <t>SL_NLV_DEN_31/12_TON_GIAO||LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_KHONG_CO_TON_GIAO</t>
-  </si>
-  <si>
-    <t>LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_KHONG_CO_TON_GIAO</t>
+    <t>SL_NLV_DEN_31/12_TON_GIAO||LD-111-68_KHONG_CO_TON_GIAO</t>
+  </si>
+  <si>
+    <t>LD-111-68_KHONG_CO_TON_GIAO</t>
   </si>
   <si>
     <t>oyutmX0tdWn.y09R6DyPUHy</t>
@@ -2404,10 +2404,10 @@
     <t>Số lượng người làm việc đến 31/12 theo Tôn giáo||Lao động làm việc theo 111/2022/NĐ-CP hoặc 68/2000/NĐ-CP..., Có tôn giáo</t>
   </si>
   <si>
-    <t>SL_NLV_DEN_31/12_TON_GIAO||LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_CO_TON_GIAO</t>
-  </si>
-  <si>
-    <t>LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_CO_TON_GIAO</t>
+    <t>SL_NLV_DEN_31/12_TON_GIAO||LD-111-68_CO_TON_GIAO</t>
+  </si>
+  <si>
+    <t>LD-111-68_CO_TON_GIAO</t>
   </si>
   <si>
     <t>SJouixvv5Ad.rZAu10Sjtmr</t>
@@ -2431,10 +2431,10 @@
     <t>Số lượng người làm việc đến 31/12 theo Đảng viên||Lao động làm việc theo 111/2022/NĐ-CP hoặc 68/2000/NĐ-CP..., Đảng viên</t>
   </si>
   <si>
-    <t>SL_NLV_DEN_31/12_DANG_VIEN||LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_DANG_VIEN</t>
-  </si>
-  <si>
-    <t>LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_DANG_VIEN</t>
+    <t>SL_NLV_DEN_31/12_DANG_VIEN||LD-111-68_DANG_VIEN</t>
+  </si>
+  <si>
+    <t>LD-111-68_DANG_VIEN</t>
   </si>
   <si>
     <t>SJouixvv5Ad.zuSMavLme4I</t>
@@ -2455,10 +2455,10 @@
     <t>Số lượng người làm việc đến 31/12 theo Đảng viên||Lao động làm việc theo 111/2022/NĐ-CP hoặc 68/2000/NĐ-CP..., Không phải đảng viên</t>
   </si>
   <si>
-    <t>SL_NLV_DEN_31/12_DANG_VIEN||LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_KHONG_PHAI_DANG_VIEN</t>
-  </si>
-  <si>
-    <t>LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_KHONG_PHAI_DANG_VIEN</t>
+    <t>SL_NLV_DEN_31/12_DANG_VIEN||LD-111-68_KHONG_PHAI_DANG_VIEN</t>
+  </si>
+  <si>
+    <t>LD-111-68_KHONG_PHAI_DANG_VIEN</t>
   </si>
   <si>
     <t>SJouixvv5Ad.wnlfmrHGy6G</t>
@@ -2566,7 +2566,7 @@
     <t>BCVC Số lượng vị trí việc làm||VTVL chức danh nghề nghiệp chuyên ngành</t>
   </si>
   <si>
-    <t>SL_VTVL||VTVL_CHUC_DANH_NGHE_NGHIEP_CN</t>
+    <t>SL_VTVL||VTVL_CDNN_CN</t>
   </si>
   <si>
     <t>zxuUaplvti4.bu9HHnMHkAH</t>
@@ -2575,7 +2575,7 @@
     <t>BCVC Số lượng vị trí việc làm||VTVL lãnh đạo quản lý</t>
   </si>
   <si>
-    <t>SL_VTVL||VTVL_LANH_DAO_QUAN_LY</t>
+    <t>SL_VTVL||VTVL_LDQL</t>
   </si>
   <si>
     <t>zxuUaplvti4.cfAAXHazdUs</t>
@@ -2584,7 +2584,7 @@
     <t>BCVC Số lượng vị trí việc làm||VTVL chức danh nghề nghiệp chuyên môn</t>
   </si>
   <si>
-    <t>SL_VTVL||VTVL_CHUC_DANH_NGHE_NGHIEP_CHUYEN_MON</t>
+    <t>SL_VTVL||VTVL_CDNN_CM</t>
   </si>
   <si>
     <t>OSe85oAeFkY.WjmHVP2diQf</t>
@@ -2626,13 +2626,13 @@
     <t>Số người làm việc thực hiện tinh giản trong năm||Viên chức, Dôi dư do thực hiện CPH, giao, bán, giải thể, sáp nhập, hợp nhất, chia, tách, phá sản hoặc chuyển thành CTTNHH hai TV trở lên hoặc chuyển thành ĐVSNCL theo QĐ của CQNN có thẩm quyền; sắp xếp, đổi mới ...</t>
   </si>
   <si>
-    <t>NLV_TH_TINH_GIAN_TRONG_NAM||VC_DOI_DU_DO_TH_CPH,_GIAO,_BAN,_GIAI_THE,_SAP_NHAP,_HOP_NHAT,_CHIA,_TACH,_PHA_SAN_HOAC_CHUYEN_THANH_CTTNHH_HAI_TV_TRO_LEN_HOAC_CHUYEN_THANH_DVSNCL_QD_CUA_CQNN_CO_THAM_QUYEN;_SAP_XEP,_DOI_MOI_...</t>
+    <t>NLV_TH_TINH_GIAN_TRONG_NAM||VC-CPH</t>
   </si>
   <si>
     <t>NLV_TH_TINH_GIAN_TRONG_NAM</t>
   </si>
   <si>
-    <t>VC_DOI_DU_DO_TH_CPH,_GIAO,_BAN,_GIAI_THE,_SAP_NHAP,_HOP_NHAT,_CHIA,_TACH,_PHA_SAN_HOAC_CHUYEN_THANH_CTTNHH_HAI_TV_TRO_LEN_HOAC_CHUYEN_THANH_DVSNCL_QD_CUA_CQNN_CO_THAM_QUYEN;_SAP_XEP,_DOI_MOI_...</t>
+    <t>VC-CPH</t>
   </si>
   <si>
     <t>BpNAqIpWSnE.fKt7LKpzsD1</t>
@@ -2641,10 +2641,10 @@
     <t>Số người làm việc thực hiện tinh giản trong năm||Lao động hợp đồng đối với VTVL là viên chức, Dôi dư do thực hiện CPH, giao, bán, giải thể, sáp nhập, hợp nhất, chia, tách, phá sản hoặc chuyển thành CTTNHH hai TV trở lên hoặc chuyển thành ĐVSNCL theo QĐ của CQNN có thẩm quyền; sắp xếp, đổi mới ...</t>
   </si>
   <si>
-    <t>NLV_TH_TINH_GIAN_TRONG_NAM||LAO_DONG_HOP_DONG_DOI_VOI_VTVL_LA_VC_DOI_DU_DO_TH_CPH,_GIAO,_BAN,_GIAI_THE,_SAP_NHAP,_HOP_NHAT,_CHIA,_TACH,_PHA_SAN_HOAC_CHUYEN_THANH_CTTNHH_HAI_TV_TRO_LEN_HOAC_CHUYEN_THANH_DVSNCL_QD_CUA_CQNN_CO_THAM_QUYEN;_SAP_XEP,_DOI_MOI_...</t>
-  </si>
-  <si>
-    <t>LAO_DONG_HOP_DONG_DOI_VOI_VTVL_LA_VC_DOI_DU_DO_TH_CPH,_GIAO,_BAN,_GIAI_THE,_SAP_NHAP,_HOP_NHAT,_CHIA,_TACH,_PHA_SAN_HOAC_CHUYEN_THANH_CTTNHH_HAI_TV_TRO_LEN_HOAC_CHUYEN_THANH_DVSNCL_QD_CUA_CQNN_CO_THAM_QUYEN;_SAP_XEP,_DOI_MOI_...</t>
+    <t>NLV_TH_TINH_GIAN_TRONG_NAM||LDHD-VC-CPH</t>
+  </si>
+  <si>
+    <t>LDHD-VC-CPH</t>
   </si>
   <si>
     <t>BpNAqIpWSnE.UGsj9ZeFLIy</t>
@@ -2665,10 +2665,10 @@
     <t>Số người làm việc thực hiện tinh giản trong năm||Viên chức, Do chuyên ngành đào tạo không phù hợp với vị trí việc làm đang đảm nhiệm nên không hoàn thành nhiệm vụ được giao</t>
   </si>
   <si>
-    <t>NLV_TH_TINH_GIAN_TRONG_NAM||VC_DO_CN_DAO_TAO_KHONG_PHU_HOP_VOI_VTVL_DANG_DAM_NHIEM_NEN_KHONG_HOAN_THANH_NHIEM_VU_DUOC_GIAO</t>
-  </si>
-  <si>
-    <t>VC_DO_CN_DAO_TAO_KHONG_PHU_HOP_VOI_VTVL_DANG_DAM_NHIEM_NEN_KHONG_HOAN_THANH_NHIEM_VU_DUOC_GIAO</t>
+    <t>NLV_TH_TINH_GIAN_TRONG_NAM||VC-KHONG-HTNV</t>
+  </si>
+  <si>
+    <t>VC-KHONG-HTNV</t>
   </si>
   <si>
     <t>BpNAqIpWSnE.YzR6PM71YOp</t>
@@ -2689,10 +2689,10 @@
     <t>Số người làm việc thực hiện tinh giản trong năm||Viên chức, Dôi dư do rà soát, sắp xếp lại tổ chức bộ máy, nhân sự theo quyết định của cơ quan có thẩm quyền của Đảng, Nhà nước</t>
   </si>
   <si>
-    <t>NLV_TH_TINH_GIAN_TRONG_NAM||VC_DOI_DU_DO_RAAT,_SAP_XEP_LAI_TO_CHUC_BO_MAY,_NHAN_SU_QUYET_DINH_CUA_CO_QUAN_CO_THAM_QUYEN_CUA_DANG,_NHA_NUOC</t>
-  </si>
-  <si>
-    <t>VC_DOI_DU_DO_RAAT,_SAP_XEP_LAI_TO_CHUC_BO_MAY,_NHAN_SU_QUYET_DINH_CUA_CO_QUAN_CO_THAM_QUYEN_CUA_DANG,_NHA_NUOC</t>
+    <t>NLV_TH_TINH_GIAN_TRONG_NAM||VC-RS</t>
+  </si>
+  <si>
+    <t>VC-RS</t>
   </si>
   <si>
     <t>BpNAqIpWSnE.YmIT6EKooCg</t>
@@ -2701,10 +2701,10 @@
     <t>Số người làm việc thực hiện tinh giản trong năm||Lao động hợp đồng đối với VTVL là viên chức, Dôi dư do rà soát, sắp xếp lại tổ chức bộ máy, nhân sự theo quyết định của cơ quan có thẩm quyền của Đảng, Nhà nước</t>
   </si>
   <si>
-    <t>NLV_TH_TINH_GIAN_TRONG_NAM||LAO_DONG_HOP_DONG_DOI_VOI_VTVL_LA_VC_DOI_DU_DO_RAAT,_SAP_XEP_LAI_TO_CHUC_BO_MAY,_NHAN_SU_QUYET_DINH_CUA_CO_QUAN_CO_THAM_QUYEN_CUA_DANG,_NHA_NUOC</t>
-  </si>
-  <si>
-    <t>LAO_DONG_HOP_DONG_DOI_VOI_VTVL_LA_VC_DOI_DU_DO_RAAT,_SAP_XEP_LAI_TO_CHUC_BO_MAY,_NHAN_SU_QUYET_DINH_CUA_CO_QUAN_CO_THAM_QUYEN_CUA_DANG,_NHA_NUOC</t>
+    <t>NLV_TH_TINH_GIAN_TRONG_NAM||LDHD-VC-RS</t>
+  </si>
+  <si>
+    <t>LDHD-VC-RS</t>
   </si>
   <si>
     <t>BpNAqIpWSnE.QlB6y7xq18N</t>
@@ -2713,10 +2713,10 @@
     <t>Số người làm việc thực hiện tinh giản trong năm||Lao động làm việc theo 111/2022/NĐ-CP hoặc 68/2000/NĐ-CP..., Dôi dư do sắp xếp lại đơn vị hành chính</t>
   </si>
   <si>
-    <t>NLV_TH_TINH_GIAN_TRONG_NAM||LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_DOI_DU_DO_SAP_XEP_LAI_DON_VI_HANH_CHINH</t>
-  </si>
-  <si>
-    <t>LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_DOI_DU_DO_SAP_XEP_LAI_DON_VI_HANH_CHINH</t>
+    <t>NLV_TH_TINH_GIAN_TRONG_NAM||LD-111-68_DOI_DU_DO_SAP_XEP_LAI_DON_VI_HANH_CHINH</t>
+  </si>
+  <si>
+    <t>LD-111-68_DOI_DU_DO_SAP_XEP_LAI_DON_VI_HANH_CHINH</t>
   </si>
   <si>
     <t>BpNAqIpWSnE.WJfXx658MiB</t>
@@ -2725,10 +2725,10 @@
     <t>Số người làm việc thực hiện tinh giản trong năm||Lao động làm việc theo 111/2022/NĐ-CP hoặc 68/2000/NĐ-CP..., Dôi dư do cơ cấu lại đội ngũ cán bộ, công chức, viên chức theo vị trí việc làm</t>
   </si>
   <si>
-    <t>NLV_TH_TINH_GIAN_TRONG_NAM||LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_DOI_DU_DO_CO_CAU_LAI_DOI_NGU_CBCC,_VC_VTVL</t>
-  </si>
-  <si>
-    <t>LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_DOI_DU_DO_CO_CAU_LAI_DOI_NGU_CBCC,_VC_VTVL</t>
+    <t>NLV_TH_TINH_GIAN_TRONG_NAM||LD-111-68_DOI_DU_DO_CO_CAU_LAI_DOI_NGU_CBCC,_VC_VTVL</t>
+  </si>
+  <si>
+    <t>LD-111-68_DOI_DU_DO_CO_CAU_LAI_DOI_NGU_CBCC,_VC_VTVL</t>
   </si>
   <si>
     <t>BpNAqIpWSnE.qv6mqkpBu06</t>
@@ -2737,10 +2737,10 @@
     <t>Số người làm việc thực hiện tinh giản trong năm||Lao động làm việc theo 111/2022/NĐ-CP hoặc 68/2000/NĐ-CP..., Do chưa đạt trình độ đào tạo theo tiêu chuẩn chuyên môn, nghiệp vụ</t>
   </si>
   <si>
-    <t>NLV_TH_TINH_GIAN_TRONG_NAM||LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_DO_CHUA_DAT_TRINH_DO_DAO_TAO_TIEU_CHUAN_CHUYEN_MON,_NGHIEP_VU</t>
-  </si>
-  <si>
-    <t>LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_DO_CHUA_DAT_TRINH_DO_DAO_TAO_TIEU_CHUAN_CHUYEN_MON,_NGHIEP_VU</t>
+    <t>NLV_TH_TINH_GIAN_TRONG_NAM||LD-111-68_DO_CHUA_DAT_TRINH_DO_DAO_TAO_TIEU_CHUAN_CM,_NGHIEP_VU</t>
+  </si>
+  <si>
+    <t>LD-111-68_DO_CHUA_DAT_TRINH_DO_DAO_TAO_TIEU_CHUAN_CM,_NGHIEP_VU</t>
   </si>
   <si>
     <t>BpNAqIpWSnE.O9DTWzFdguM</t>
@@ -2749,10 +2749,10 @@
     <t>Số người làm việc thực hiện tinh giản trong năm||Lao động hợp đồng đối với VTVL là viên chức, Do có tổng số ngày nghỉ làm việc bằng hoặc cao hơn số ngày nghỉ tối đa do ốm đau theo quy định</t>
   </si>
   <si>
-    <t>NLV_TH_TINH_GIAN_TRONG_NAM||LAO_DONG_HOP_DONG_DOI_VOI_VTVL_LA_VC_DO_CO_TS_NGAY_NGHI_LAM_VIEC_BANG_HOAC_CAO_HON_NGAY_NGHI_TOI_DA_DO_OM_DAU_QUY_DINH</t>
-  </si>
-  <si>
-    <t>LAO_DONG_HOP_DONG_DOI_VOI_VTVL_LA_VC_DO_CO_TS_NGAY_NGHI_LAM_VIEC_BANG_HOAC_CAO_HON_NGAY_NGHI_TOI_DA_DO_OM_DAU_QUY_DINH</t>
+    <t>NLV_TH_TINH_GIAN_TRONG_NAM||LDHD-VC-NGAY-NGHI</t>
+  </si>
+  <si>
+    <t>LDHD-VC-NGAY-NGHI</t>
   </si>
   <si>
     <t>BpNAqIpWSnE.AQV2AGyeXo6</t>
@@ -2761,10 +2761,10 @@
     <t>Số người làm việc thực hiện tinh giản trong năm||Lao động hợp đồng đối với VTVL là viên chức, Do chưa đạt trình độ đào tạo theo tiêu chuẩn chuyên môn, nghiệp vụ</t>
   </si>
   <si>
-    <t>NLV_TH_TINH_GIAN_TRONG_NAM||LAO_DONG_HOP_DONG_DOI_VOI_VTVL_LA_VC_DO_CHUA_DAT_TRINH_DO_DAO_TAO_TIEU_CHUAN_CHUYEN_MON,_NGHIEP_VU</t>
-  </si>
-  <si>
-    <t>LAO_DONG_HOP_DONG_DOI_VOI_VTVL_LA_VC_DO_CHUA_DAT_TRINH_DO_DAO_TAO_TIEU_CHUAN_CHUYEN_MON,_NGHIEP_VU</t>
+    <t>NLV_TH_TINH_GIAN_TRONG_NAM||LDHD-VC-CHUYEN-MON</t>
+  </si>
+  <si>
+    <t>LDHD-VC-CHUYEN-MON</t>
   </si>
   <si>
     <t>BpNAqIpWSnE.O4RDkpabdW0</t>
@@ -2773,10 +2773,10 @@
     <t>Số người làm việc thực hiện tinh giản trong năm||Lao động làm việc theo 111/2022/NĐ-CP hoặc 68/2000/NĐ-CP..., Do chuyên ngành đào tạo không phù hợp với vị trí việc làm đang đảm nhiệm nên không hoàn thành nhiệm vụ được giao</t>
   </si>
   <si>
-    <t>NLV_TH_TINH_GIAN_TRONG_NAM||LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_DO_CN_DAO_TAO_KHONG_PHU_HOP_VOI_VTVL_DANG_DAM_NHIEM_NEN_KHONG_HOAN_THANH_NHIEM_VU_DUOC_GIAO</t>
-  </si>
-  <si>
-    <t>LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_DO_CN_DAO_TAO_KHONG_PHU_HOP_VOI_VTVL_DANG_DAM_NHIEM_NEN_KHONG_HOAN_THANH_NHIEM_VU_DUOC_GIAO</t>
+    <t>NLV_TH_TINH_GIAN_TRONG_NAM||LD-111-68-KHONG-HTNV</t>
+  </si>
+  <si>
+    <t>LD-111-68-KHONG-HTNV</t>
   </si>
   <si>
     <t>BpNAqIpWSnE.N29KhWtnju4</t>
@@ -2797,10 +2797,10 @@
     <t>Số người làm việc thực hiện tinh giản trong năm||Lao động làm việc theo 111/2022/NĐ-CP hoặc 68/2000/NĐ-CP..., Dôi dư do rà soát, sắp xếp lại tổ chức bộ máy, nhân sự theo quyết định của cơ quan có thẩm quyền của Đảng, Nhà nước</t>
   </si>
   <si>
-    <t>NLV_TH_TINH_GIAN_TRONG_NAM||LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_DOI_DU_DO_RAAT,_SAP_XEP_LAI_TO_CHUC_BO_MAY,_NHAN_SU_QUYET_DINH_CUA_CO_QUAN_CO_THAM_QUYEN_CUA_DANG,_NHA_NUOC</t>
-  </si>
-  <si>
-    <t>LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_DOI_DU_DO_RAAT,_SAP_XEP_LAI_TO_CHUC_BO_MAY,_NHAN_SU_QUYET_DINH_CUA_CO_QUAN_CO_THAM_QUYEN_CUA_DANG,_NHA_NUOC</t>
+    <t>NLV_TH_TINH_GIAN_TRONG_NAM||LD-111-68-RS</t>
+  </si>
+  <si>
+    <t>LD-111-68-RS</t>
   </si>
   <si>
     <t>BpNAqIpWSnE.bNAbpiatqbl</t>
@@ -2821,10 +2821,10 @@
     <t>Số người làm việc thực hiện tinh giản trong năm||Lao động hợp đồng đối với VTVL là viên chức, Do chuyên ngành đào tạo không phù hợp với vị trí việc làm đang đảm nhiệm nên không hoàn thành nhiệm vụ được giao</t>
   </si>
   <si>
-    <t>NLV_TH_TINH_GIAN_TRONG_NAM||LAO_DONG_HOP_DONG_DOI_VOI_VTVL_LA_VC_DO_CN_DAO_TAO_KHONG_PHU_HOP_VOI_VTVL_DANG_DAM_NHIEM_NEN_KHONG_HOAN_THANH_NHIEM_VU_DUOC_GIAO</t>
-  </si>
-  <si>
-    <t>LAO_DONG_HOP_DONG_DOI_VOI_VTVL_LA_VC_DO_CN_DAO_TAO_KHONG_PHU_HOP_VOI_VTVL_DANG_DAM_NHIEM_NEN_KHONG_HOAN_THANH_NHIEM_VU_DUOC_GIAO</t>
+    <t>NLV_TH_TINH_GIAN_TRONG_NAM||LDHD-VC-KHONG-HTNV</t>
+  </si>
+  <si>
+    <t>LDHD-VC-KHONG-HTNV</t>
   </si>
   <si>
     <t>BpNAqIpWSnE.aGWcm0nooQz</t>
@@ -2845,10 +2845,10 @@
     <t>Số người làm việc thực hiện tinh giản trong năm||Lao động làm việc theo 111/2022/NĐ-CP hoặc 68/2000/NĐ-CP..., Dôi dư do thực hiện CPH, giao, bán, giải thể, sáp nhập, hợp nhất, chia, tách, phá sản hoặc chuyển thành CTTNHH hai TV trở lên hoặc chuyển thành ĐVSNCL theo QĐ của CQNN có thẩm quyền; sắp xếp, đổ</t>
   </si>
   <si>
-    <t>NLV_TH_TINH_GIAN_TRONG_NAM||LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_DOI_DU_DO_TH_CPH,_GIAO,_BAN,_GIAI_THE,_SAP_NHAP,_HOP_NHAT,_CHIA,_TACH,_PHA_SAN_HOAC_CHUYEN_THANH_CTTNHH_HAI_TV_TRO_LEN_HOAC_CHUYEN_THANH_DVSNCL_QD_CUA_CQNN_CO_THAM_QUYEN;_SAP_XEP,_DO</t>
-  </si>
-  <si>
-    <t>LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_DOI_DU_DO_TH_CPH,_GIAO,_BAN,_GIAI_THE,_SAP_NHAP,_HOP_NHAT,_CHIA,_TACH,_PHA_SAN_HOAC_CHUYEN_THANH_CTTNHH_HAI_TV_TRO_LEN_HOAC_CHUYEN_THANH_DVSNCL_QD_CUA_CQNN_CO_THAM_QUYEN;_SAP_XEP,_DO</t>
+    <t>NLV_TH_TINH_GIAN_TRONG_NAM||LD-111-68-CPH</t>
+  </si>
+  <si>
+    <t>LD-111-68-CPH</t>
   </si>
   <si>
     <t>BpNAqIpWSnE.zdflqkaptcc</t>
@@ -2857,10 +2857,10 @@
     <t>Số người làm việc thực hiện tinh giản trong năm||Lao động làm việc theo 111/2022/NĐ-CP hoặc 68/2000/NĐ-CP..., Do xếp loại chất lượng hàng năm không hoàn thành nhiệm vụ</t>
   </si>
   <si>
-    <t>NLV_TH_TINH_GIAN_TRONG_NAM||LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_DO_XEP_LOAI_CHAT_LUONG_HANG_NAM_KHONG_HOAN_THANH_NHIEM_VU</t>
-  </si>
-  <si>
-    <t>LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_DO_XEP_LOAI_CHAT_LUONG_HANG_NAM_KHONG_HOAN_THANH_NHIEM_VU</t>
+    <t>NLV_TH_TINH_GIAN_TRONG_NAM||LD-111-68_DO_XEP_LOAI_CHAT_LUONG_HANG_NAM_KHONG_HOAN_THANH_NHIEM_VU</t>
+  </si>
+  <si>
+    <t>LD-111-68_DO_XEP_LOAI_CHAT_LUONG_HANG_NAM_KHONG_HOAN_THANH_NHIEM_VU</t>
   </si>
   <si>
     <t>BpNAqIpWSnE.r2GBVT9KIk2</t>
@@ -2869,10 +2869,10 @@
     <t>Số người làm việc thực hiện tinh giản trong năm||Lao động làm việc theo 111/2022/NĐ-CP hoặc 68/2000/NĐ-CP..., Do có tổng số ngày nghỉ làm việc bằng hoặc cao hơn số ngày nghỉ tối đa do ốm đau theo quy định</t>
   </si>
   <si>
-    <t>NLV_TH_TINH_GIAN_TRONG_NAM||LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_DO_CO_TS_NGAY_NGHI_LAM_VIEC_BANG_HOAC_CAO_HON_NGAY_NGHI_TOI_DA_DO_OM_DAU_QUY_DINH</t>
-  </si>
-  <si>
-    <t>LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_DO_CO_TS_NGAY_NGHI_LAM_VIEC_BANG_HOAC_CAO_HON_NGAY_NGHI_TOI_DA_DO_OM_DAU_QUY_DINH</t>
+    <t>NLV_TH_TINH_GIAN_TRONG_NAM||LD-111-68-NGAY-NGHI</t>
+  </si>
+  <si>
+    <t>LD-111-68-NGAY-NGHI</t>
   </si>
   <si>
     <t>BpNAqIpWSnE.wUs2cON981r</t>
@@ -2905,10 +2905,10 @@
     <t>Số người làm việc thực hiện tinh giản trong năm||Viên chức, Do chưa đạt trình độ đào tạo theo tiêu chuẩn chuyên môn, nghiệp vụ</t>
   </si>
   <si>
-    <t>NLV_TH_TINH_GIAN_TRONG_NAM||VC_DO_CHUA_DAT_TRINH_DO_DAO_TAO_TIEU_CHUAN_CHUYEN_MON,_NGHIEP_VU</t>
-  </si>
-  <si>
-    <t>VC_DO_CHUA_DAT_TRINH_DO_DAO_TAO_TIEU_CHUAN_CHUYEN_MON,_NGHIEP_VU</t>
+    <t>NLV_TH_TINH_GIAN_TRONG_NAM||VC_DO_CHUA_DAT_TRINH_DO_DAO_TAO_TIEU_CHUAN_CM,_NGHIEP_VU</t>
+  </si>
+  <si>
+    <t>VC_DO_CHUA_DAT_TRINH_DO_DAO_TAO_TIEU_CHUAN_CM,_NGHIEP_VU</t>
   </si>
   <si>
     <t>LrTsfyA5lLF.jO7lGUqzIQR</t>
@@ -3052,7 +3052,7 @@
     <t>CCCB Số lượng vị trí việc làm||VTVL lãnh đạo quản lý</t>
   </si>
   <si>
-    <t>_SL_VTVL||VTVL_LANH_DAO_QUAN_LY</t>
+    <t>_SL_VTVL||VTVL_LDQL</t>
   </si>
   <si>
     <t>NNKh7O79Xp5.scMQ7PlljCC</t>
@@ -3073,10 +3073,10 @@
     <t>CCCB Số lượng vị trí việc làm||VTVL nghiệp vụ chuyên môn</t>
   </si>
   <si>
-    <t>_SL_VTVL||VTVL_NGHIEP_VU_CHUYEN_MON</t>
-  </si>
-  <si>
-    <t>VTVL_NGHIEP_VU_CHUYEN_MON</t>
+    <t>_SL_VTVL||VTVL_NGHIEP_VU_CM</t>
+  </si>
+  <si>
+    <t>VTVL_NGHIEP_VU_CM</t>
   </si>
   <si>
     <t>HPYivAcCEZK.jO7lGUqzIQR</t>
@@ -3121,10 +3121,10 @@
     <t>Tổng số biên chế thực hiện tinh giản||Công chức, Do chuyên ngành đào tạo không phù hợp với vị trí việc làm đang đảm nhiệm nên không hoàn thành nhiệm vụ được giao</t>
   </si>
   <si>
-    <t>TS_BIEN_CHE_TH_TINH_GIAN||CC,_DO_CN_DAO_TAO_KHONG_PHU_HOP_VOI_VTVL_DANG_DAM_NHIEM_NEN_KHONG_HOAN_THANH_NHIEM_VU_DUOC_GIAO</t>
-  </si>
-  <si>
-    <t>CC,_DO_CN_DAO_TAO_KHONG_PHU_HOP_VOI_VTVL_DANG_DAM_NHIEM_NEN_KHONG_HOAN_THANH_NHIEM_VU_DUOC_GIAO</t>
+    <t>TS_BIEN_CHE_TH_TINH_GIAN||CC-KHONG-HTNV</t>
+  </si>
+  <si>
+    <t>CC-KHONG-HTNV</t>
   </si>
   <si>
     <t>QsPykGw6WhU.kDhyeBk7GTA</t>
@@ -3133,7 +3133,7 @@
     <t>Tổng số biên chế thực hiện tinh giản||Lao động làm việc theo 111/2022/NĐ-CP hoặc 68/2000/NĐ-CP..., Do có tổng số ngày nghỉ làm việc bằng hoặc cao hơn số ngày nghỉ tối đa do ốm đau theo quy định</t>
   </si>
   <si>
-    <t>TS_BIEN_CHE_TH_TINH_GIAN||LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_DO_CO_TS_NGAY_NGHI_LAM_VIEC_BANG_HOAC_CAO_HON_NGAY_NGHI_TOI_DA_DO_OM_DAU_QUY_DINH</t>
+    <t>TS_BIEN_CHE_TH_TINH_GIAN||LD-111-68-NGAY-NGHI</t>
   </si>
   <si>
     <t>QsPykGw6WhU.ZRjU4gBB4QX</t>
@@ -3142,7 +3142,7 @@
     <t>Tổng số biên chế thực hiện tinh giản||Lao động làm việc theo 111/2022/NĐ-CP hoặc 68/2000/NĐ-CP..., Do chưa đạt trình độ đào tạo theo tiêu chuẩn chuyên môn, nghiệp vụ</t>
   </si>
   <si>
-    <t>TS_BIEN_CHE_TH_TINH_GIAN||LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_DO_CHUA_DAT_TRINH_DO_DAO_TAO_TIEU_CHUAN_CHUYEN_MON,_NGHIEP_VU</t>
+    <t>TS_BIEN_CHE_TH_TINH_GIAN||LD-111-68_DO_CHUA_DAT_TRINH_DO_DAO_TAO_TIEU_CHUAN_CM,_NGHIEP_VU</t>
   </si>
   <si>
     <t>QsPykGw6WhU.mcoOtwrTnwR</t>
@@ -3151,7 +3151,7 @@
     <t>Tổng số biên chế thực hiện tinh giản||Lao động làm việc theo 111/2022/NĐ-CP hoặc 68/2000/NĐ-CP..., Do chuyên ngành đào tạo không phù hợp với vị trí việc làm đang đảm nhiệm nên không hoàn thành nhiệm vụ được giao</t>
   </si>
   <si>
-    <t>TS_BIEN_CHE_TH_TINH_GIAN||LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_DO_CN_DAO_TAO_KHONG_PHU_HOP_VOI_VTVL_DANG_DAM_NHIEM_NEN_KHONG_HOAN_THANH_NHIEM_VU_DUOC_GIAO</t>
+    <t>TS_BIEN_CHE_TH_TINH_GIAN||LD-111-68-KHONG-HTNV</t>
   </si>
   <si>
     <t>QsPykGw6WhU.rL26H6E8XNK</t>
@@ -3160,7 +3160,7 @@
     <t>Tổng số biên chế thực hiện tinh giản||Lao động làm việc theo 111/2022/NĐ-CP hoặc 68/2000/NĐ-CP..., Do xếp loại chất lượng hàng năm không hoàn thành nhiệm vụ</t>
   </si>
   <si>
-    <t>TS_BIEN_CHE_TH_TINH_GIAN||LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_DO_XEP_LOAI_CHAT_LUONG_HANG_NAM_KHONG_HOAN_THANH_NHIEM_VU</t>
+    <t>TS_BIEN_CHE_TH_TINH_GIAN||LD-111-68_DO_XEP_LOAI_CHAT_LUONG_HANG_NAM_KHONG_HOAN_THANH_NHIEM_VU</t>
   </si>
   <si>
     <t>QsPykGw6WhU.GBGVKGD76Of</t>
@@ -3181,7 +3181,7 @@
     <t>Tổng số biên chế thực hiện tinh giản||Lao động làm việc theo 111/2022/NĐ-CP hoặc 68/2000/NĐ-CP..., Dôi dư do thực hiện CPH, giao, bán, giải thể, sáp nhập, hợp nhất, chia, tách, phá sản hoặc chuyển thành CTTNHH hai TV trở lên hoặc chuyển thành ĐVSNCL theo QĐ của CQNN có thẩm quyền; sắp xếp, đổ</t>
   </si>
   <si>
-    <t>TS_BIEN_CHE_TH_TINH_GIAN||LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_DOI_DU_DO_TH_CPH,_GIAO,_BAN,_GIAI_THE,_SAP_NHAP,_HOP_NHAT,_CHIA,_TACH,_PHA_SAN_HOAC_CHUYEN_THANH_CTTNHH_HAI_TV_TRO_LEN_HOAC_CHUYEN_THANH_DVSNCL_QD_CUA_CQNN_CO_THAM_QUYEN;_SAP_XEP,_DO</t>
+    <t>TS_BIEN_CHE_TH_TINH_GIAN||LD-111-68-CPH</t>
   </si>
   <si>
     <t>QsPykGw6WhU.wfGdS2NBgdT</t>
@@ -3202,10 +3202,10 @@
     <t>Tổng số biên chế thực hiện tinh giản||Công chức, Do chưa đạt trình độ đào tạo theo tiêu chuẩn chuyên môn, nghiệp vụ</t>
   </si>
   <si>
-    <t>TS_BIEN_CHE_TH_TINH_GIAN||CC,_DO_CHUA_DAT_TRINH_DO_DAO_TAO_TIEU_CHUAN_CHUYEN_MON,_NGHIEP_VU</t>
-  </si>
-  <si>
-    <t>CC,_DO_CHUA_DAT_TRINH_DO_DAO_TAO_TIEU_CHUAN_CHUYEN_MON,_NGHIEP_VU</t>
+    <t>TS_BIEN_CHE_TH_TINH_GIAN||CC,_DO_CHUA_DAT_TRINH_DO_DAO_TAO_TIEU_CHUAN_CM,_NGHIEP_VU</t>
+  </si>
+  <si>
+    <t>CC,_DO_CHUA_DAT_TRINH_DO_DAO_TAO_TIEU_CHUAN_CM,_NGHIEP_VU</t>
   </si>
   <si>
     <t>QsPykGw6WhU.SFPmbKJFliu</t>
@@ -3214,10 +3214,10 @@
     <t>Tổng số biên chế thực hiện tinh giản||Công chức, Dôi dư do thực hiện CPH, giao, bán, giải thể, sáp nhập, hợp nhất, chia, tách, phá sản hoặc chuyển thành CTTNHH hai TV trở lên hoặc chuyển thành ĐVSNCL theo QĐ của CQNN có thẩm quyền; sắp xếp, đổi mới ...</t>
   </si>
   <si>
-    <t>TS_BIEN_CHE_TH_TINH_GIAN||CC,_DOI_DU_DO_TH_CPH,_GIAO,_BAN,_GIAI_THE,_SAP_NHAP,_HOP_NHAT,_CHIA,_TACH,_PHA_SAN_HOAC_CHUYEN_THANH_CTTNHH_HAI_TV_TRO_LEN_HOAC_CHUYEN_THANH_DVSNCL_QD_CUA_CQNN_CO_THAM_QUYEN;_SAP_XEP,_DOI_MOI_...</t>
-  </si>
-  <si>
-    <t>CC,_DOI_DU_DO_TH_CPH,_GIAO,_BAN,_GIAI_THE,_SAP_NHAP,_HOP_NHAT,_CHIA,_TACH,_PHA_SAN_HOAC_CHUYEN_THANH_CTTNHH_HAI_TV_TRO_LEN_HOAC_CHUYEN_THANH_DVSNCL_QD_CUA_CQNN_CO_THAM_QUYEN;_SAP_XEP,_DOI_MOI_...</t>
+    <t>TS_BIEN_CHE_TH_TINH_GIAN||CC-CPH</t>
+  </si>
+  <si>
+    <t>CC-CPH</t>
   </si>
   <si>
     <t>QsPykGw6WhU.LISADkbWA6D</t>
@@ -3238,10 +3238,10 @@
     <t>Tổng số biên chế thực hiện tinh giản||Cán bộ, Do chưa đạt trình độ đào tạo theo tiêu chuẩn chuyên môn, nghiệp vụ</t>
   </si>
   <si>
-    <t>TS_BIEN_CHE_TH_TINH_GIAN||CB,_DO_CHUA_DAT_TRINH_DO_DAO_TAO_TIEU_CHUAN_CHUYEN_MON,_NGHIEP_VU</t>
-  </si>
-  <si>
-    <t>CB,_DO_CHUA_DAT_TRINH_DO_DAO_TAO_TIEU_CHUAN_CHUYEN_MON,_NGHIEP_VU</t>
+    <t>TS_BIEN_CHE_TH_TINH_GIAN||CB,_DO_CHUA_DAT_TRINH_DO_DAO_TAO_TIEU_CHUAN_CM,_NGHIEP_VU</t>
+  </si>
+  <si>
+    <t>CB,_DO_CHUA_DAT_TRINH_DO_DAO_TAO_TIEU_CHUAN_CM,_NGHIEP_VU</t>
   </si>
   <si>
     <t>QsPykGw6WhU.gPYZI8Wqv9v</t>
@@ -3262,7 +3262,7 @@
     <t>Tổng số biên chế thực hiện tinh giản||Lao động làm việc theo 111/2022/NĐ-CP hoặc 68/2000/NĐ-CP..., Dôi dư do sắp xếp lại đơn vị hành chính</t>
   </si>
   <si>
-    <t>TS_BIEN_CHE_TH_TINH_GIAN||LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_DOI_DU_DO_SAP_XEP_LAI_DON_VI_HANH_CHINH</t>
+    <t>TS_BIEN_CHE_TH_TINH_GIAN||LD-111-68_DOI_DU_DO_SAP_XEP_LAI_DON_VI_HANH_CHINH</t>
   </si>
   <si>
     <t>QsPykGw6WhU.MdLp6HETDvl</t>
@@ -3271,10 +3271,10 @@
     <t>Tổng số biên chế thực hiện tinh giản||Cán bộ, Dôi dư do rà soát, sắp xếp lại tổ chức bộ máy, nhân sự theo quyết định của cơ quan có thẩm quyền của Đảng, Nhà nước</t>
   </si>
   <si>
-    <t>TS_BIEN_CHE_TH_TINH_GIAN||CB,_DOI_DU_DO_RAAT,_SAP_XEP_LAI_TO_CHUC_BO_MAY,_NHAN_SU_QUYET_DINH_CUA_CO_QUAN_CO_THAM_QUYEN_CUA_DANG,_NHA_NUOC</t>
-  </si>
-  <si>
-    <t>CB,_DOI_DU_DO_RAAT,_SAP_XEP_LAI_TO_CHUC_BO_MAY,_NHAN_SU_QUYET_DINH_CUA_CO_QUAN_CO_THAM_QUYEN_CUA_DANG,_NHA_NUOC</t>
+    <t>TS_BIEN_CHE_TH_TINH_GIAN||CB-RS</t>
+  </si>
+  <si>
+    <t>CB-RS</t>
   </si>
   <si>
     <t>QsPykGw6WhU.BNyEdWegIyo</t>
@@ -3319,10 +3319,10 @@
     <t>Tổng số biên chế thực hiện tinh giản||Cán bộ, Dôi dư do thực hiện CPH, giao, bán, giải thể, sáp nhập, hợp nhất, chia, tách, phá sản hoặc chuyển thành CTTNHH hai TV trở lên hoặc chuyển thành ĐVSNCL theo QĐ của CQNN có thẩm quyền; sắp xếp, đổi mới ...</t>
   </si>
   <si>
-    <t>TS_BIEN_CHE_TH_TINH_GIAN||CB,_DOI_DU_DO_TH_CPH,_GIAO,_BAN,_GIAI_THE,_SAP_NHAP,_HOP_NHAT,_CHIA,_TACH,_PHA_SAN_HOAC_CHUYEN_THANH_CTTNHH_HAI_TV_TRO_LEN_HOAC_CHUYEN_THANH_DVSNCL_QD_CUA_CQNN_CO_THAM_QUYEN;_SAP_XEP,_DOI_MOI_...</t>
-  </si>
-  <si>
-    <t>CB,_DOI_DU_DO_TH_CPH,_GIAO,_BAN,_GIAI_THE,_SAP_NHAP,_HOP_NHAT,_CHIA,_TACH,_PHA_SAN_HOAC_CHUYEN_THANH_CTTNHH_HAI_TV_TRO_LEN_HOAC_CHUYEN_THANH_DVSNCL_QD_CUA_CQNN_CO_THAM_QUYEN;_SAP_XEP,_DOI_MOI_...</t>
+    <t>TS_BIEN_CHE_TH_TINH_GIAN||CB-CPH</t>
+  </si>
+  <si>
+    <t>CB-CPH</t>
   </si>
   <si>
     <t>QsPykGw6WhU.CM2O5NM9U4r</t>
@@ -3331,7 +3331,7 @@
     <t>Tổng số biên chế thực hiện tinh giản||Lao động làm việc theo 111/2022/NĐ-CP hoặc 68/2000/NĐ-CP..., Dôi dư do cơ cấu lại đội ngũ cán bộ, công chức, viên chức theo vị trí việc làm</t>
   </si>
   <si>
-    <t>TS_BIEN_CHE_TH_TINH_GIAN||LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_DOI_DU_DO_CO_CAU_LAI_DOI_NGU_CBCC,_VC_VTVL</t>
+    <t>TS_BIEN_CHE_TH_TINH_GIAN||LD-111-68_DOI_DU_DO_CO_CAU_LAI_DOI_NGU_CBCC,_VC_VTVL</t>
   </si>
   <si>
     <t>QsPykGw6WhU.YwQmxzRTv6x</t>
@@ -3364,7 +3364,7 @@
     <t>Tổng số biên chế thực hiện tinh giản||Lao động làm việc theo 111/2022/NĐ-CP hoặc 68/2000/NĐ-CP..., Dôi dư do rà soát, sắp xếp lại tổ chức bộ máy, nhân sự theo quyết định của cơ quan có thẩm quyền của Đảng, Nhà nước</t>
   </si>
   <si>
-    <t>TS_BIEN_CHE_TH_TINH_GIAN||LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_DOI_DU_DO_RAAT,_SAP_XEP_LAI_TO_CHUC_BO_MAY,_NHAN_SU_QUYET_DINH_CUA_CO_QUAN_CO_THAM_QUYEN_CUA_DANG,_NHA_NUOC</t>
+    <t>TS_BIEN_CHE_TH_TINH_GIAN||LD-111-68-RS</t>
   </si>
   <si>
     <t>Wdn8K88s6Iz.IHj2jh6QuN3</t>
@@ -3388,10 +3388,10 @@
     <t>Tổng số biên chế được giao||Lao động làm việc theo 111/2022/NĐ-CP hoặc 68/2000/NĐ-CP..., Biên chế công chức</t>
   </si>
   <si>
-    <t>TS_BIEN_CHE_DUOC_GIAO||LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_BIEN_CHE_CC</t>
-  </si>
-  <si>
-    <t>LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_BIEN_CHE_CC</t>
+    <t>TS_BIEN_CHE_DUOC_GIAO||LD-111-68_BIEN_CHE_CC</t>
+  </si>
+  <si>
+    <t>LD-111-68_BIEN_CHE_CC</t>
   </si>
   <si>
     <t>Wdn8K88s6Iz.DhpIwd0NSm1</t>
@@ -3400,7 +3400,7 @@
     <t>Tổng số biên chế được giao||Lao động làm việc theo 111/2022/NĐ-CP hoặc 68/2000/NĐ-CP..., Số lao động làm việc theo hợp đồng theo Nghị định số 111/2022/NĐ-CP (hoặc theo Nghị định số 68/2000/NĐ-CP, Nghị định số 161/2018/NĐ-CP khi chưa chuyển đổi sang Nghị định 111/2022/NĐ-CP)</t>
   </si>
   <si>
-    <t>TS_BIEN_CHE_DUOC_GIAO||LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_LAO_DONG_LAM_VIEC_HOP_DONG_NGHI_DINH_111/2022/ND-CP_(HOAC_NGHI_DINH_68/2000/ND-CP,_NGHI_DINH_161/2018/ND-CP_KHI_CHUA_CHUYEN_DOI_SANG_NGHI_DINH_111/2022/ND-CP)</t>
+    <t>TS_BIEN_CHE_DUOC_GIAO||LD-111-68_LAO_DONG_LAM_VIEC_HOP_DONG_NGHI_DINH_111/2022/ND-CP_(HOAC_NGHI_DINH_68/2000/ND-CP,_NGHI_DINH_161/2018/ND-CP_KHI_CHUA_CHUYEN_DOI_SANG_NGHI_DINH_111/2022/ND-CP)</t>
   </si>
   <si>
     <t>Wdn8K88s6Iz.GwQFmnmu6uV</t>
@@ -3472,7 +3472,7 @@
     <t>Tổng số cán bộ, công chức||Lao động làm việc theo 111/2022/NĐ-CP hoặc 68/2000/NĐ-CP..., Nữ</t>
   </si>
   <si>
-    <t>TS_CBCC||LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_NU</t>
+    <t>TS_CBCC||LD-111-68_NU</t>
   </si>
   <si>
     <t>njSuHdcyxVO.bi5bI8l6hNt</t>
@@ -3505,7 +3505,7 @@
     <t>Tổng số cán bộ, công chức||Lao động làm việc theo 111/2022/NĐ-CP hoặc 68/2000/NĐ-CP..., Nam</t>
   </si>
   <si>
-    <t>TS_CBCC||LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_NAM</t>
+    <t>TS_CBCC||LD-111-68_NAM</t>
   </si>
   <si>
     <t>yCgislfGqdP.B1xyFVnDvcB</t>
@@ -3529,7 +3529,7 @@
     <t>Tổng số cán bộ, công chức theo dân tộc||Lao động làm việc theo 111/2022/NĐ-CP hoặc 68/2000/NĐ-CP..., Dân tộc Khác</t>
   </si>
   <si>
-    <t>TS_CBCC_DAN_TOC||LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_DAN_TOC_KHAC</t>
+    <t>TS_CBCC_DAN_TOC||LD-111-68_DAN_TOC_KHAC</t>
   </si>
   <si>
     <t>yCgislfGqdP.v8OiL7jbyc6</t>
@@ -3574,7 +3574,7 @@
     <t>Tổng số cán bộ, công chức theo dân tộc||Lao động làm việc theo 111/2022/NĐ-CP hoặc 68/2000/NĐ-CP..., Dân tộc Kinh</t>
   </si>
   <si>
-    <t>TS_CBCC_DAN_TOC||LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_DAN_TOC_KINH</t>
+    <t>TS_CBCC_DAN_TOC||LD-111-68_DAN_TOC_KINH</t>
   </si>
   <si>
     <t>FOdkB9B7BuA.TITKR2dmaeJ</t>
@@ -3598,7 +3598,7 @@
     <t>Tổng số cán bộ, công chức theo học hàm||Lao động làm việc theo 111/2022/NĐ-CP hoặc 68/2000/NĐ-CP..., Giáo sư</t>
   </si>
   <si>
-    <t>TS_CBCC_HOC_HAM||LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_GIAO_SU</t>
+    <t>TS_CBCC_HOC_HAM||LD-111-68_GIAO_SU</t>
   </si>
   <si>
     <t>FOdkB9B7BuA.Be539iwJJeb</t>
@@ -3643,7 +3643,7 @@
     <t>Tổng số cán bộ, công chức theo học hàm||Lao động làm việc theo 111/2022/NĐ-CP hoặc 68/2000/NĐ-CP..., Phó giáo sư</t>
   </si>
   <si>
-    <t>TS_CBCC_HOC_HAM||LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_PHO_GIAO_SU</t>
+    <t>TS_CBCC_HOC_HAM||LD-111-68_PHO_GIAO_SU</t>
   </si>
   <si>
     <t>bp0YnXPt8ls.sVzXbuKebPd</t>
@@ -3667,10 +3667,10 @@
     <t>Tổng số cán bộ, công chức theo ngạch công chức||Lao động làm việc theo 111/2022/NĐ-CP hoặc 68/2000/NĐ-CP..., Nhân viên</t>
   </si>
   <si>
-    <t>TS_CBCC_NGACH_CC||LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_NHAN_VIEN</t>
-  </si>
-  <si>
-    <t>LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_NHAN_VIEN</t>
+    <t>TS_CBCC_NGACH_CC||LD-111-68_NHAN_VIEN</t>
+  </si>
+  <si>
+    <t>LD-111-68_NHAN_VIEN</t>
   </si>
   <si>
     <t>bp0YnXPt8ls.cE4Hw0Ikzt1</t>
@@ -3703,10 +3703,10 @@
     <t>Tổng số cán bộ, công chức theo ngạch công chức||Lao động làm việc theo 111/2022/NĐ-CP hoặc 68/2000/NĐ-CP..., Chuyên viên cao cấp và tương đương</t>
   </si>
   <si>
-    <t>TS_CBCC_NGACH_CC||LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_CHUYEN_VIEN_CAO_CAP_VA_TUONG_DUONG</t>
-  </si>
-  <si>
-    <t>LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_CHUYEN_VIEN_CAO_CAP_VA_TUONG_DUONG</t>
+    <t>TS_CBCC_NGACH_CC||LD-111-68_CHUYEN_VIEN_CAO_CAP_VA_TUONG_DUONG</t>
+  </si>
+  <si>
+    <t>LD-111-68_CHUYEN_VIEN_CAO_CAP_VA_TUONG_DUONG</t>
   </si>
   <si>
     <t>bp0YnXPt8ls.XWgOrvdT0Fs</t>
@@ -3715,10 +3715,10 @@
     <t>Tổng số cán bộ, công chức theo ngạch công chức||Lao động làm việc theo 111/2022/NĐ-CP hoặc 68/2000/NĐ-CP..., Chuyên viên và tương đương</t>
   </si>
   <si>
-    <t>TS_CBCC_NGACH_CC||LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_CHUYEN_VIEN_VA_TUONG_DUONG</t>
-  </si>
-  <si>
-    <t>LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_CHUYEN_VIEN_VA_TUONG_DUONG</t>
+    <t>TS_CBCC_NGACH_CC||LD-111-68_CHUYEN_VIEN_VA_TUONG_DUONG</t>
+  </si>
+  <si>
+    <t>LD-111-68_CHUYEN_VIEN_VA_TUONG_DUONG</t>
   </si>
   <si>
     <t>bp0YnXPt8ls.zGw3kFjrufm</t>
@@ -3811,10 +3811,10 @@
     <t>Tổng số cán bộ, công chức theo ngạch công chức||Lao động làm việc theo 111/2022/NĐ-CP hoặc 68/2000/NĐ-CP..., Cán sự và tương đương</t>
   </si>
   <si>
-    <t>TS_CBCC_NGACH_CC||LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_CAN_SU_VA_TUONG_DUONG</t>
-  </si>
-  <si>
-    <t>LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_CAN_SU_VA_TUONG_DUONG</t>
+    <t>TS_CBCC_NGACH_CC||LD-111-68_CAN_SU_VA_TUONG_DUONG</t>
+  </si>
+  <si>
+    <t>LD-111-68_CAN_SU_VA_TUONG_DUONG</t>
   </si>
   <si>
     <t>bp0YnXPt8ls.PbwtO5t342W</t>
@@ -3823,10 +3823,10 @@
     <t>Tổng số cán bộ, công chức theo ngạch công chức||Lao động làm việc theo 111/2022/NĐ-CP hoặc 68/2000/NĐ-CP..., Chuyên viên chính và tương đương</t>
   </si>
   <si>
-    <t>TS_CBCC_NGACH_CC||LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_CHUYEN_VIEN_CHINH_VA_TUONG_DUONG</t>
-  </si>
-  <si>
-    <t>LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_CHUYEN_VIEN_CHINH_VA_TUONG_DUONG</t>
+    <t>TS_CBCC_NGACH_CC||LD-111-68_CHUYEN_VIEN_CHINH_VA_TUONG_DUONG</t>
+  </si>
+  <si>
+    <t>LD-111-68_CHUYEN_VIEN_CHINH_VA_TUONG_DUONG</t>
   </si>
   <si>
     <t>nvyj6a9ZVgd.LaI5kA6YMEg</t>
@@ -3862,7 +3862,7 @@
     <t>Tổng số cán bộ, công chức theo nhóm tuổi||Lao động làm việc theo 111/2022/NĐ-CP hoặc 68/2000/NĐ-CP..., Từ 30 trở xuống</t>
   </si>
   <si>
-    <t>TS_CBCC_NHOM_TUOI||LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_TU_30_TRO_XUONG</t>
+    <t>TS_CBCC_NHOM_TUOI||LD-111-68_TU_30_TRO_XUONG</t>
   </si>
   <si>
     <t>nvyj6a9ZVgd.wo9gacPQdrg</t>
@@ -3883,7 +3883,7 @@
     <t>Tổng số cán bộ, công chức theo nhóm tuổi||Lao động làm việc theo 111/2022/NĐ-CP hoặc 68/2000/NĐ-CP..., Từ 41 đến 50</t>
   </si>
   <si>
-    <t>TS_CBCC_NHOM_TUOI||LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_TU_41_DEN_50</t>
+    <t>TS_CBCC_NHOM_TUOI||LD-111-68_TU_41_DEN_50</t>
   </si>
   <si>
     <t>nvyj6a9ZVgd.XOeuq5IuuOc</t>
@@ -3892,7 +3892,7 @@
     <t>Tổng số cán bộ, công chức theo nhóm tuổi||Lao động làm việc theo 111/2022/NĐ-CP hoặc 68/2000/NĐ-CP..., Từ 51 đến 55</t>
   </si>
   <si>
-    <t>TS_CBCC_NHOM_TUOI||LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_TU_51_DEN_55</t>
+    <t>TS_CBCC_NHOM_TUOI||LD-111-68_TU_51_DEN_55</t>
   </si>
   <si>
     <t>nvyj6a9ZVgd.DSJKsm4nbaf</t>
@@ -3913,7 +3913,7 @@
     <t>Tổng số cán bộ, công chức theo nhóm tuổi||Lao động làm việc theo 111/2022/NĐ-CP hoặc 68/2000/NĐ-CP..., Từ 31 đến 40</t>
   </si>
   <si>
-    <t>TS_CBCC_NHOM_TUOI||LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_TU_31_DEN_40</t>
+    <t>TS_CBCC_NHOM_TUOI||LD-111-68_TU_31_DEN_40</t>
   </si>
   <si>
     <t>nvyj6a9ZVgd.WdEzNQXCsic</t>
@@ -3994,7 +3994,7 @@
     <t>Tổng số cán bộ, công chức theo nhóm tuổi||Lao động làm việc theo 111/2022/NĐ-CP hoặc 68/2000/NĐ-CP..., Từ 56 đến 60</t>
   </si>
   <si>
-    <t>TS_CBCC_NHOM_TUOI||LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_TU_56_DEN_60</t>
+    <t>TS_CBCC_NHOM_TUOI||LD-111-68_TU_56_DEN_60</t>
   </si>
   <si>
     <t>nvyj6a9ZVgd.eme4OUAl38J</t>
@@ -4015,7 +4015,7 @@
     <t>Tổng số cán bộ, công chức theo nhóm tuổi||Lao động làm việc theo 111/2022/NĐ-CP hoặc 68/2000/NĐ-CP..., Trên 60 tuổi</t>
   </si>
   <si>
-    <t>TS_CBCC_NHOM_TUOI||LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_TREN_60_TUOI</t>
+    <t>TS_CBCC_NHOM_TUOI||LD-111-68_TREN_60_TUOI</t>
   </si>
   <si>
     <t>nvyj6a9ZVgd.vxel0SvgdtM</t>
@@ -4036,7 +4036,7 @@
     <t>Tổng số cán bộ, công chức theo trình độ học vấn||Lao động làm việc theo 111/2022/NĐ-CP hoặc 68/2000/NĐ-CP..., Tiểu học</t>
   </si>
   <si>
-    <t>TS_CBCC_TDHV||LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_TIEU_HOC</t>
+    <t>TS_CBCC_TDHV||LD-111-68_TIEU_HOC</t>
   </si>
   <si>
     <t>TS_CBCC_TDHV</t>
@@ -4132,7 +4132,7 @@
     <t>Tổng số cán bộ, công chức theo trình độ học vấn||Lao động làm việc theo 111/2022/NĐ-CP hoặc 68/2000/NĐ-CP..., Cao đẳng</t>
   </si>
   <si>
-    <t>TS_CBCC_TDHV||LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_CAO_DANG</t>
+    <t>TS_CBCC_TDHV||LD-111-68_CAO_DANG</t>
   </si>
   <si>
     <t>lG8zDpGHA6e.erhYUOrlQ0g</t>
@@ -4141,7 +4141,7 @@
     <t>Tổng số cán bộ, công chức theo trình độ học vấn||Lao động làm việc theo 111/2022/NĐ-CP hoặc 68/2000/NĐ-CP..., Sơ cấp</t>
   </si>
   <si>
-    <t>TS_CBCC_TDHV||LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_CAP</t>
+    <t>TS_CBCC_TDHV||LD-111-68_CAP</t>
   </si>
   <si>
     <t>lG8zDpGHA6e.t3qMNXE3Lq4</t>
@@ -4150,7 +4150,7 @@
     <t>Tổng số cán bộ, công chức theo trình độ học vấn||Lao động làm việc theo 111/2022/NĐ-CP hoặc 68/2000/NĐ-CP..., Thạc sĩ</t>
   </si>
   <si>
-    <t>TS_CBCC_TDHV||LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_THAC_SI</t>
+    <t>TS_CBCC_TDHV||LD-111-68_THAC_SI</t>
   </si>
   <si>
     <t>lG8zDpGHA6e.zb339GYAutO</t>
@@ -4159,7 +4159,7 @@
     <t>Tổng số cán bộ, công chức theo trình độ học vấn||Lao động làm việc theo 111/2022/NĐ-CP hoặc 68/2000/NĐ-CP..., Tiến sĩ</t>
   </si>
   <si>
-    <t>TS_CBCC_TDHV||LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_TIEN_SI</t>
+    <t>TS_CBCC_TDHV||LD-111-68_TIEN_SI</t>
   </si>
   <si>
     <t>lG8zDpGHA6e.r3mXGUBoEVL</t>
@@ -4204,7 +4204,7 @@
     <t>Tổng số cán bộ, công chức theo trình độ học vấn||Lao động làm việc theo 111/2022/NĐ-CP hoặc 68/2000/NĐ-CP..., Trung học phổ thông</t>
   </si>
   <si>
-    <t>TS_CBCC_TDHV||LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_TRUNG_HOC_PHO_THONG</t>
+    <t>TS_CBCC_TDHV||LD-111-68_TRUNG_HOC_PHO_THONG</t>
   </si>
   <si>
     <t>lG8zDpGHA6e.ZpymdZO0fcu</t>
@@ -4213,7 +4213,7 @@
     <t>Tổng số cán bộ, công chức theo trình độ học vấn||Lao động làm việc theo 111/2022/NĐ-CP hoặc 68/2000/NĐ-CP..., Trung cấp</t>
   </si>
   <si>
-    <t>TS_CBCC_TDHV||LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_TRUNG_CAP</t>
+    <t>TS_CBCC_TDHV||LD-111-68_TRUNG_CAP</t>
   </si>
   <si>
     <t>lG8zDpGHA6e.RQmzGvc1lOr</t>
@@ -4294,7 +4294,7 @@
     <t>Tổng số cán bộ, công chức theo trình độ học vấn||Lao động làm việc theo 111/2022/NĐ-CP hoặc 68/2000/NĐ-CP..., Đại học</t>
   </si>
   <si>
-    <t>TS_CBCC_TDHV||LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_DAI_HOC</t>
+    <t>TS_CBCC_TDHV||LD-111-68_DAI_HOC</t>
   </si>
   <si>
     <t>lG8zDpGHA6e.AVS98vBvpCL</t>
@@ -4315,7 +4315,7 @@
     <t>Tổng số cán bộ, công chức theo trình độ học vấn||Lao động làm việc theo 111/2022/NĐ-CP hoặc 68/2000/NĐ-CP..., Trung học cơ sở</t>
   </si>
   <si>
-    <t>TS_CBCC_TDHV||LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_TRUNG_HOC_CO</t>
+    <t>TS_CBCC_TDHV||LD-111-68_TRUNG_HOC_CO</t>
   </si>
   <si>
     <t>lG8zDpGHA6e.KspWpYVeOEj</t>
@@ -4363,7 +4363,7 @@
     <t>Tổng số cán bộ, công chức theo trình độ LLCT||Lao động làm việc theo 111/2022/NĐ-CP hoặc 68/2000/NĐ-CP..., Cao cấp</t>
   </si>
   <si>
-    <t>TS_CBCC_TRINH_DO_LLCT||LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_CAO_CAP</t>
+    <t>TS_CBCC_TRINH_DO_LLCT||LD-111-68_CAO_CAP</t>
   </si>
   <si>
     <t>k1UImqfHiwR.kS3zUkeSP74</t>
@@ -4399,7 +4399,7 @@
     <t>Tổng số cán bộ, công chức theo trình độ LLCT||Lao động làm việc theo 111/2022/NĐ-CP hoặc 68/2000/NĐ-CP..., Đại học</t>
   </si>
   <si>
-    <t>TS_CBCC_TRINH_DO_LLCT||LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_DAI_HOC</t>
+    <t>TS_CBCC_TRINH_DO_LLCT||LD-111-68_DAI_HOC</t>
   </si>
   <si>
     <t>k1UImqfHiwR.Ep2kyBaT442</t>
@@ -4435,7 +4435,7 @@
     <t>Tổng số cán bộ, công chức theo trình độ LLCT||Lao động làm việc theo 111/2022/NĐ-CP hoặc 68/2000/NĐ-CP..., Trung cấp</t>
   </si>
   <si>
-    <t>TS_CBCC_TRINH_DO_LLCT||LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_TRUNG_CAP</t>
+    <t>TS_CBCC_TRINH_DO_LLCT||LD-111-68_TRUNG_CAP</t>
   </si>
   <si>
     <t>k1UImqfHiwR.Bp8J6243XLQ</t>
@@ -4444,7 +4444,7 @@
     <t>Tổng số cán bộ, công chức theo trình độ LLCT||Lao động làm việc theo 111/2022/NĐ-CP hoặc 68/2000/NĐ-CP..., Sơ cấp</t>
   </si>
   <si>
-    <t>TS_CBCC_TRINH_DO_LLCT||LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_CAP</t>
+    <t>TS_CBCC_TRINH_DO_LLCT||LD-111-68_CAP</t>
   </si>
   <si>
     <t>na9pohVUC7i.VUKOJf0RYvN</t>
@@ -4453,7 +4453,7 @@
     <t>Tổng số cán bộ, công chức theo trình độ ngoại ngữ||Lao động làm việc theo 111/2022/NĐ-CP hoặc 68/2000/NĐ-CP..., Chứng chỉ tiếng Anh theo KNLNNVN (chi tiết 6 bậc theo TT01/2014/TT-BGDĐT)</t>
   </si>
   <si>
-    <t>TS_CBCC_TRINH_DO_NGOAI_NGU||LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_CHUNG_CHI_TIENG_ANH_KNLNNVN_(CHI_TIET_6_BAC_TT01/2014/TT-BGDDT)</t>
+    <t>TS_CBCC_TRINH_DO_NGOAI_NGU||LD-111-68_CHUNG_CHI_TIENG_ANH_KNLNNVN_(CHI_TIET_6_BAC_TT01/2014/TT-BGDDT)</t>
   </si>
   <si>
     <t>TS_CBCC_TRINH_DO_NGOAI_NGU</t>
@@ -4489,7 +4489,7 @@
     <t>Tổng số cán bộ, công chức theo trình độ ngoại ngữ||Lao động làm việc theo 111/2022/NĐ-CP hoặc 68/2000/NĐ-CP..., Chứng chỉ tiếng Anh khác</t>
   </si>
   <si>
-    <t>TS_CBCC_TRINH_DO_NGOAI_NGU||LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_CHUNG_CHI_TIENG_ANH_KHAC</t>
+    <t>TS_CBCC_TRINH_DO_NGOAI_NGU||LD-111-68_CHUNG_CHI_TIENG_ANH_KHAC</t>
   </si>
   <si>
     <t>na9pohVUC7i.EhYXSYODVrE</t>
@@ -4510,7 +4510,7 @@
     <t>Tổng số cán bộ, công chức theo trình độ ngoại ngữ||Lao động làm việc theo 111/2022/NĐ-CP hoặc 68/2000/NĐ-CP..., Có chứng chỉ tiếng dân tộc</t>
   </si>
   <si>
-    <t>TS_CBCC_TRINH_DO_NGOAI_NGU||LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_CO_CHUNG_CHI_TIENG_DAN_TOC</t>
+    <t>TS_CBCC_TRINH_DO_NGOAI_NGU||LD-111-68_CO_CHUNG_CHI_TIENG_DAN_TOC</t>
   </si>
   <si>
     <t>na9pohVUC7i.iUsgnWuYLMd</t>
@@ -4519,7 +4519,7 @@
     <t>Tổng số cán bộ, công chức theo trình độ ngoại ngữ||Lao động làm việc theo 111/2022/NĐ-CP hoặc 68/2000/NĐ-CP..., Chứng chỉ ngoại ngữ khác</t>
   </si>
   <si>
-    <t>TS_CBCC_TRINH_DO_NGOAI_NGU||LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_CHUNG_CHI_NGOAI_NGU_KHAC</t>
+    <t>TS_CBCC_TRINH_DO_NGOAI_NGU||LD-111-68_CHUNG_CHI_NGOAI_NGU_KHAC</t>
   </si>
   <si>
     <t>na9pohVUC7i.elzD0mBVL7C</t>
@@ -4576,7 +4576,7 @@
     <t>Tổng số cán bộ, công chức theo trình độ ngoại ngữ||Lao động làm việc theo 111/2022/NĐ-CP hoặc 68/2000/NĐ-CP..., Ngoại ngữ khác trình độ đại học trở lên</t>
   </si>
   <si>
-    <t>TS_CBCC_TRINH_DO_NGOAI_NGU||LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_NGOAI_NGU_KHAC_TRINH_DO_DAI_HOC_TRO_LEN</t>
+    <t>TS_CBCC_TRINH_DO_NGOAI_NGU||LD-111-68_NGOAI_NGU_KHAC_TRINH_DO_DAI_HOC_TRO_LEN</t>
   </si>
   <si>
     <t>na9pohVUC7i.JOuINFNRO6x</t>
@@ -4597,7 +4597,7 @@
     <t>Tổng số cán bộ, công chức theo trình độ ngoại ngữ||Lao động làm việc theo 111/2022/NĐ-CP hoặc 68/2000/NĐ-CP..., Tiếng Anh trình độ đại học trở lên</t>
   </si>
   <si>
-    <t>TS_CBCC_TRINH_DO_NGOAI_NGU||LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_TIENG_ANH_TRINH_DO_DAI_HOC_TRO_LEN</t>
+    <t>TS_CBCC_TRINH_DO_NGOAI_NGU||LD-111-68_TIENG_ANH_TRINH_DO_DAI_HOC_TRO_LEN</t>
   </si>
   <si>
     <t>na9pohVUC7i.ybLPGAZ6N7b</t>
@@ -4642,7 +4642,7 @@
     <t>Tổng số cán bộ, công chức theo trình độ ngoại ngữ||Lao động làm việc theo 111/2022/NĐ-CP hoặc 68/2000/NĐ-CP..., Tiếng dân tộc sử dụng giao tiếp được</t>
   </si>
   <si>
-    <t>TS_CBCC_TRINH_DO_NGOAI_NGU||LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_TIENG_DAN_TOC_SU_DUNG_GIAO_TIEP_DUOC</t>
+    <t>TS_CBCC_TRINH_DO_NGOAI_NGU||LD-111-68_TIENG_DAN_TOC_SU_DUNG_GIAO_TIEP_DUOC</t>
   </si>
   <si>
     <t>na9pohVUC7i.SxO2JTozCer</t>
@@ -4702,7 +4702,7 @@
     <t>Tổng số cán bộ, công chức theo trình độ tin học||Lao động làm việc theo 111/2022/NĐ-CP hoặc 68/2000/NĐ-CP..., Tin học trình độ Đại học trở lên</t>
   </si>
   <si>
-    <t>TS_CBCC_TRINH_DO_TIN_HOC||LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_TIN_HOC_TRINH_DO_DAI_HOC_TRO_LEN</t>
+    <t>TS_CBCC_TRINH_DO_TIN_HOC||LD-111-68_TIN_HOC_TRINH_DO_DAI_HOC_TRO_LEN</t>
   </si>
   <si>
     <t>kmKwOD088cf.HLL4PQxKk8c</t>
@@ -4711,7 +4711,7 @@
     <t>Tổng số cán bộ, công chức theo trình độ tin học||Lao động làm việc theo 111/2022/NĐ-CP hoặc 68/2000/NĐ-CP..., Chứng chỉ tin học</t>
   </si>
   <si>
-    <t>TS_CBCC_TRINH_DO_TIN_HOC||LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_CHUNG_CHI_TIN_HOC</t>
+    <t>TS_CBCC_TRINH_DO_TIN_HOC||LD-111-68_CHUNG_CHI_TIN_HOC</t>
   </si>
   <si>
     <t>kmKwOD088cf.aPXNZQoueMV</t>
@@ -4756,7 +4756,7 @@
     <t>Tổng số cán bộ, công chức theo trình độ tin học||Lao động làm việc theo 111/2022/NĐ-CP hoặc 68/2000/NĐ-CP..., Tin học trình độ Trung cấp, cao đẳng</t>
   </si>
   <si>
-    <t>TS_CBCC_TRINH_DO_TIN_HOC||LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_TIN_HOC_TRINH_DO_TRUNG_CAP,_CAO_DANG</t>
+    <t>TS_CBCC_TRINH_DO_TIN_HOC||LD-111-68_TIN_HOC_TRINH_DO_TRUNG_CAP,_CAO_DANG</t>
   </si>
   <si>
     <t>kmKwOD088cf.A1QVTZbmxqI</t>
@@ -4816,7 +4816,7 @@
     <t>Tổng số cán bộ, công chức theo tôn giáo||Lao động làm việc theo 111/2022/NĐ-CP hoặc 68/2000/NĐ-CP..., Có tôn giáo</t>
   </si>
   <si>
-    <t>TS_CBCC_TON_GIAO||LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_CO_TON_GIAO</t>
+    <t>TS_CBCC_TON_GIAO||LD-111-68_CO_TON_GIAO</t>
   </si>
   <si>
     <t>OPGm8iXnDrl.qxxfLik5viT</t>
@@ -4849,7 +4849,7 @@
     <t>Tổng số cán bộ, công chức theo tôn giáo||Lao động làm việc theo 111/2022/NĐ-CP hoặc 68/2000/NĐ-CP..., Không có tôn giáo</t>
   </si>
   <si>
-    <t>TS_CBCC_TON_GIAO||LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_KHONG_CO_TON_GIAO</t>
+    <t>TS_CBCC_TON_GIAO||LD-111-68_KHONG_CO_TON_GIAO</t>
   </si>
   <si>
     <t>gVu648dCvxa.G1f9GAUpPmT</t>
@@ -4858,7 +4858,7 @@
     <t>Tổng số cán bộ, công chức theo đảng viên||Lao động làm việc theo 111/2022/NĐ-CP hoặc 68/2000/NĐ-CP..., Không phải đảng viên</t>
   </si>
   <si>
-    <t>TS_CBCC_DANG_VIEN||LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_KHONG_PHAI_DANG_VIEN</t>
+    <t>TS_CBCC_DANG_VIEN||LD-111-68_KHONG_PHAI_DANG_VIEN</t>
   </si>
   <si>
     <t>TS_CBCC_DANG_VIEN</t>
@@ -4894,7 +4894,7 @@
     <t>Tổng số cán bộ, công chức theo đảng viên||Lao động làm việc theo 111/2022/NĐ-CP hoặc 68/2000/NĐ-CP..., Đảng viên</t>
   </si>
   <si>
-    <t>TS_CBCC_DANG_VIEN||LAO_DONG_LAM_VIEC_111/2022/ND-CP_HOAC_68/2000/ND-CP...,_DANG_VIEN</t>
+    <t>TS_CBCC_DANG_VIEN||LD-111-68_DANG_VIEN</t>
   </si>
   <si>
     <t>gVu648dCvxa.MOPnR6j5gRN</t>
@@ -9016,10 +9016,10 @@
     <t>Xã đảm bảo đủ chức danh nghề nghiệp||default</t>
   </si>
   <si>
-    <t>XA_DAM_BAO_DU_CHUC_DANH_NGHE_NGHIEP||DEFAULT</t>
-  </si>
-  <si>
-    <t>XA_DAM_BAO_DU_CHUC_DANH_NGHE_NGHIEP</t>
+    <t>XA_DAM_BAO_DU_CDNN||DEFAULT</t>
+  </si>
+  <si>
+    <t>XA_DAM_BAO_DU_CDNN</t>
   </si>
   <si>
     <t>a7MymUfvQYW.HllvX50cXC0</t>
